--- a/state_results/Rivers/PiakatutuatusSansonSTP_c53fb1a033.xlsx
+++ b/state_results/Rivers/PiakatutuatusSansonSTP_c53fb1a033.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U166"/>
+  <dimension ref="A1:U182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1072,7 +1072,7 @@
         <v>0.02095</v>
       </c>
       <c r="G8" t="n">
-        <v>0.040419097506672</v>
+        <v>0.0404170228166976</v>
       </c>
       <c r="H8" t="n">
         <v>0.344405594405594</v>
@@ -1153,7 +1153,7 @@
         <v>0.02095</v>
       </c>
       <c r="G9" t="n">
-        <v>0.040419097506672</v>
+        <v>0.0404170228166976</v>
       </c>
       <c r="H9" t="n">
         <v>0.344405594405594</v>
@@ -1234,7 +1234,7 @@
         <v>0.1535</v>
       </c>
       <c r="G10" t="n">
-        <v>0.479988772787368</v>
+        <v>0.479964003498013</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -1245,7 +1245,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>0.00281</v>
+        <v>0.0029</v>
       </c>
       <c r="M10" t="n">
         <v>0.98</v>
@@ -1315,7 +1315,7 @@
         <v>0.1535</v>
       </c>
       <c r="G11" t="n">
-        <v>0.479988772787368</v>
+        <v>0.479964003498013</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -1326,7 +1326,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>0.00281</v>
+        <v>0.0029</v>
       </c>
       <c r="M11" t="n">
         <v>0.98</v>
@@ -1392,7 +1392,7 @@
         <v>0.301</v>
       </c>
       <c r="G12" t="n">
-        <v>0.554125</v>
+        <v>0.553917857142857</v>
       </c>
       <c r="H12" t="n">
         <v>4.108</v>
@@ -1469,7 +1469,7 @@
         <v>0.301</v>
       </c>
       <c r="G13" t="n">
-        <v>0.554125</v>
+        <v>0.553917857142857</v>
       </c>
       <c r="H13" t="n">
         <v>4.108</v>
@@ -2360,7 +2360,7 @@
         <v>0.02095</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0354519993978366</v>
+        <v>0.0354499247078622</v>
       </c>
       <c r="H24" t="n">
         <v>0.22693129342339</v>
@@ -2441,7 +2441,7 @@
         <v>0.02095</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0354519993978366</v>
+        <v>0.0354499247078622</v>
       </c>
       <c r="H25" t="n">
         <v>0.22693129342339</v>
@@ -2522,7 +2522,7 @@
         <v>0.07199999999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>0.355903277646767</v>
+        <v>0.355829360016225</v>
       </c>
       <c r="H26" t="n">
         <v>4</v>
@@ -2533,7 +2533,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>0.002</v>
+        <v>0.00185</v>
       </c>
       <c r="M26" t="n">
         <v>0.6582</v>
@@ -2603,7 +2603,7 @@
         <v>0.07199999999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>0.355903277646767</v>
+        <v>0.355829360016225</v>
       </c>
       <c r="H27" t="n">
         <v>4</v>
@@ -2614,7 +2614,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>0.002</v>
+        <v>0.00185</v>
       </c>
       <c r="M27" t="n">
         <v>0.6582</v>
@@ -2677,16 +2677,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.2795</v>
+        <v>0.27945</v>
       </c>
       <c r="G28" t="n">
-        <v>0.446625</v>
+        <v>0.446419642857143</v>
       </c>
       <c r="H28" t="n">
         <v>4.108</v>
       </c>
       <c r="I28" t="n">
-        <v>1.3955</v>
+        <v>1.39562</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -2697,7 +2697,7 @@
         <v>0.7169</v>
       </c>
       <c r="N28" t="n">
-        <v>1.13174</v>
+        <v>1.13175</v>
       </c>
       <c r="O28" t="n">
         <v>1805182</v>
@@ -2754,16 +2754,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.2795</v>
+        <v>0.27945</v>
       </c>
       <c r="G29" t="n">
-        <v>0.446625</v>
+        <v>0.446419642857143</v>
       </c>
       <c r="H29" t="n">
         <v>4.108</v>
       </c>
       <c r="I29" t="n">
-        <v>1.3955</v>
+        <v>1.39562</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -2774,7 +2774,7 @@
         <v>0.7169</v>
       </c>
       <c r="N29" t="n">
-        <v>1.13174</v>
+        <v>1.13175</v>
       </c>
       <c r="O29" t="n">
         <v>1805182</v>
@@ -3648,7 +3648,7 @@
         <v>0.01748</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0342128386095317</v>
+        <v>0.0341923720860649</v>
       </c>
       <c r="H40" t="n">
         <v>0.22693129342339</v>
@@ -3729,7 +3729,7 @@
         <v>0.01748</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0342128386095317</v>
+        <v>0.0341923720860649</v>
       </c>
       <c r="H41" t="n">
         <v>0.22693129342339</v>
@@ -3810,7 +3810,7 @@
         <v>0.0421</v>
       </c>
       <c r="G42" t="n">
-        <v>0.422355416220261</v>
+        <v>0.422270362761093</v>
       </c>
       <c r="H42" t="n">
         <v>4</v>
@@ -3821,7 +3821,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>0.002</v>
+        <v>0.00165</v>
       </c>
       <c r="M42" t="n">
         <v>0.76589</v>
@@ -3891,7 +3891,7 @@
         <v>0.0421</v>
       </c>
       <c r="G43" t="n">
-        <v>0.422355416220261</v>
+        <v>0.422270362761093</v>
       </c>
       <c r="H43" t="n">
         <v>4</v>
@@ -3902,7 +3902,7 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>0.002</v>
+        <v>0.00165</v>
       </c>
       <c r="M43" t="n">
         <v>0.76589</v>
@@ -3968,24 +3968,24 @@
         <v>0.125</v>
       </c>
       <c r="G44" t="n">
-        <v>0.507649372449632</v>
+        <v>0.507443310913289</v>
       </c>
       <c r="H44" t="n">
         <v>4.108</v>
       </c>
       <c r="I44" t="n">
-        <v>2.7068</v>
+        <v>2.70694</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>0.0345</v>
+        <v>0.03425</v>
       </c>
       <c r="M44" t="n">
-        <v>0.85914</v>
+        <v>0.85906</v>
       </c>
       <c r="N44" t="n">
-        <v>1.4399</v>
+        <v>1.43992</v>
       </c>
       <c r="O44" t="n">
         <v>1805182</v>
@@ -4045,24 +4045,24 @@
         <v>0.125</v>
       </c>
       <c r="G45" t="n">
-        <v>0.507649372449632</v>
+        <v>0.507443310913289</v>
       </c>
       <c r="H45" t="n">
         <v>4.108</v>
       </c>
       <c r="I45" t="n">
-        <v>2.7068</v>
+        <v>2.70694</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>0.0345</v>
+        <v>0.03425</v>
       </c>
       <c r="M45" t="n">
-        <v>0.85914</v>
+        <v>0.85906</v>
       </c>
       <c r="N45" t="n">
-        <v>1.4399</v>
+        <v>1.43992</v>
       </c>
       <c r="O45" t="n">
         <v>1805182</v>
@@ -4936,7 +4936,7 @@
         <v>0.01167</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0378686748746825</v>
+        <v>0.0378417431316106</v>
       </c>
       <c r="H56" t="n">
         <v>0.22693129342339</v>
@@ -5017,7 +5017,7 @@
         <v>0.01167</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0378686748746825</v>
+        <v>0.0378417431316106</v>
       </c>
       <c r="H57" t="n">
         <v>0.22693129342339</v>
@@ -5098,7 +5098,7 @@
         <v>0.03755</v>
       </c>
       <c r="G58" t="n">
-        <v>0.315401212651012</v>
+        <v>0.315340073090332</v>
       </c>
       <c r="H58" t="n">
         <v>2.8946</v>
@@ -5109,7 +5109,7 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
-        <v>0.0019</v>
+        <v>0.001</v>
       </c>
       <c r="M58" t="n">
         <v>0.68586</v>
@@ -5179,7 +5179,7 @@
         <v>0.03755</v>
       </c>
       <c r="G59" t="n">
-        <v>0.315401212651012</v>
+        <v>0.315340073090332</v>
       </c>
       <c r="H59" t="n">
         <v>2.8946</v>
@@ -5190,7 +5190,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
-        <v>0.0019</v>
+        <v>0.001</v>
       </c>
       <c r="M59" t="n">
         <v>0.68586</v>
@@ -5256,10 +5256,10 @@
         <v>0.1315</v>
       </c>
       <c r="G60" t="n">
-        <v>0.411866595145305</v>
+        <v>0.411644458590022</v>
       </c>
       <c r="H60" t="n">
-        <v>2.91</v>
+        <v>2.9097</v>
       </c>
       <c r="I60" t="n">
         <v>1.5164</v>
@@ -5267,13 +5267,13 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>0.012</v>
+        <v>0.0109</v>
       </c>
       <c r="M60" t="n">
-        <v>0.75996</v>
+        <v>0.7597</v>
       </c>
       <c r="N60" t="n">
-        <v>1.25256</v>
+        <v>1.2529</v>
       </c>
       <c r="O60" t="n">
         <v>1805182</v>
@@ -5333,10 +5333,10 @@
         <v>0.1315</v>
       </c>
       <c r="G61" t="n">
-        <v>0.411866595145305</v>
+        <v>0.411644458590022</v>
       </c>
       <c r="H61" t="n">
-        <v>2.91</v>
+        <v>2.9097</v>
       </c>
       <c r="I61" t="n">
         <v>1.5164</v>
@@ -5344,13 +5344,13 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>0.012</v>
+        <v>0.0109</v>
       </c>
       <c r="M61" t="n">
-        <v>0.75996</v>
+        <v>0.7597</v>
       </c>
       <c r="N61" t="n">
-        <v>1.25256</v>
+        <v>1.2529</v>
       </c>
       <c r="O61" t="n">
         <v>1805182</v>
@@ -6305,7 +6305,7 @@
         <v>0.009730000000000001</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0291842386385746</v>
+        <v>0.029152086346316</v>
       </c>
       <c r="H73" t="n">
         <v>0.22693129342339</v>
@@ -6316,7 +6316,7 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
-        <v>0.00225</v>
+        <v>0.00219</v>
       </c>
       <c r="M73" t="n">
         <v>0.05037</v>
@@ -6386,7 +6386,7 @@
         <v>0.009730000000000001</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0291842386385746</v>
+        <v>0.029152086346316</v>
       </c>
       <c r="H74" t="n">
         <v>0.22693129342339</v>
@@ -6397,7 +6397,7 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
-        <v>0.00225</v>
+        <v>0.00219</v>
       </c>
       <c r="M74" t="n">
         <v>0.05037</v>
@@ -6467,7 +6467,7 @@
         <v>0.01845</v>
       </c>
       <c r="G75" t="n">
-        <v>0.322164766981361</v>
+        <v>0.322140015302237</v>
       </c>
       <c r="H75" t="n">
         <v>2.8946</v>
@@ -6478,7 +6478,7 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
-        <v>0.00131</v>
+        <v>0.001</v>
       </c>
       <c r="M75" t="n">
         <v>0.7713</v>
@@ -6548,7 +6548,7 @@
         <v>0.01845</v>
       </c>
       <c r="G76" t="n">
-        <v>0.322164766981361</v>
+        <v>0.322140015302237</v>
       </c>
       <c r="H76" t="n">
         <v>2.8946</v>
@@ -6559,7 +6559,7 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
-        <v>0.00131</v>
+        <v>0.001</v>
       </c>
       <c r="M76" t="n">
         <v>0.7713</v>
@@ -6622,13 +6622,13 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.097</v>
+        <v>0.0973</v>
       </c>
       <c r="G77" t="n">
-        <v>0.400678971057871</v>
+        <v>0.40045206649006</v>
       </c>
       <c r="H77" t="n">
-        <v>2.91</v>
+        <v>2.9097</v>
       </c>
       <c r="I77" t="n">
         <v>1.5055</v>
@@ -6636,13 +6636,13 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>0.01124</v>
+        <v>0.009769999999999999</v>
       </c>
       <c r="M77" t="n">
         <v>0.838</v>
       </c>
       <c r="N77" t="n">
-        <v>1.2372</v>
+        <v>1.23748</v>
       </c>
       <c r="O77" t="n">
         <v>1805182</v>
@@ -6699,13 +6699,13 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.097</v>
+        <v>0.0973</v>
       </c>
       <c r="G78" t="n">
-        <v>0.400678971057871</v>
+        <v>0.40045206649006</v>
       </c>
       <c r="H78" t="n">
-        <v>2.91</v>
+        <v>2.9097</v>
       </c>
       <c r="I78" t="n">
         <v>1.5055</v>
@@ -6713,13 +6713,13 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
-        <v>0.01124</v>
+        <v>0.009769999999999999</v>
       </c>
       <c r="M78" t="n">
         <v>0.838</v>
       </c>
       <c r="N78" t="n">
-        <v>1.2372</v>
+        <v>1.23748</v>
       </c>
       <c r="O78" t="n">
         <v>1805182</v>
@@ -7674,7 +7674,7 @@
         <v>0.01027</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0276715246083033</v>
+        <v>0.0276351273780872</v>
       </c>
       <c r="H90" t="n">
         <v>0.22550300938835</v>
@@ -7685,7 +7685,7 @@
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
-        <v>0.00259</v>
+        <v>0.00248</v>
       </c>
       <c r="M90" t="n">
         <v>0.05318</v>
@@ -7755,7 +7755,7 @@
         <v>0.01027</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0276715246083033</v>
+        <v>0.0276351273780872</v>
       </c>
       <c r="H91" t="n">
         <v>0.22550300938835</v>
@@ -7766,7 +7766,7 @@
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
-        <v>0.00259</v>
+        <v>0.00248</v>
       </c>
       <c r="M91" t="n">
         <v>0.05318</v>
@@ -7836,7 +7836,7 @@
         <v>0.0214</v>
       </c>
       <c r="G92" t="n">
-        <v>0.285005253906987</v>
+        <v>0.285056233537947</v>
       </c>
       <c r="H92" t="n">
         <v>2.8946</v>
@@ -7847,7 +7847,7 @@
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
-        <v>0.00131</v>
+        <v>0.00117</v>
       </c>
       <c r="M92" t="n">
         <v>0.6405</v>
@@ -7917,7 +7917,7 @@
         <v>0.0214</v>
       </c>
       <c r="G93" t="n">
-        <v>0.285005253906987</v>
+        <v>0.285056233537947</v>
       </c>
       <c r="H93" t="n">
         <v>2.8946</v>
@@ -7928,7 +7928,7 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
-        <v>0.00131</v>
+        <v>0.00117</v>
       </c>
       <c r="M93" t="n">
         <v>0.6405</v>
@@ -7991,13 +7991,13 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.097</v>
+        <v>0.0973</v>
       </c>
       <c r="G94" t="n">
-        <v>0.359052136184147</v>
+        <v>0.359010379660663</v>
       </c>
       <c r="H94" t="n">
-        <v>2.91</v>
+        <v>2.9097</v>
       </c>
       <c r="I94" t="n">
         <v>1.404</v>
@@ -8005,10 +8005,10 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
-        <v>0.01124</v>
+        <v>0.0109</v>
       </c>
       <c r="M94" t="n">
-        <v>0.76032</v>
+        <v>0.76006</v>
       </c>
       <c r="N94" t="n">
         <v>1.1511</v>
@@ -8068,13 +8068,13 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.097</v>
+        <v>0.0973</v>
       </c>
       <c r="G95" t="n">
-        <v>0.359052136184147</v>
+        <v>0.359010379660663</v>
       </c>
       <c r="H95" t="n">
-        <v>2.91</v>
+        <v>2.9097</v>
       </c>
       <c r="I95" t="n">
         <v>1.404</v>
@@ -8082,10 +8082,10 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
-        <v>0.01124</v>
+        <v>0.0109</v>
       </c>
       <c r="M95" t="n">
-        <v>0.76032</v>
+        <v>0.76006</v>
       </c>
       <c r="N95" t="n">
         <v>1.1511</v>
@@ -8703,13 +8703,13 @@
         <v>350</v>
       </c>
       <c r="G103" t="n">
-        <v>2989.90424316526</v>
+        <v>2869.83608271002</v>
       </c>
       <c r="H103" t="n">
         <v>49000</v>
       </c>
       <c r="I103" t="n">
-        <v>23519.05003</v>
+        <v>18566.23841</v>
       </c>
       <c r="J103" t="n">
         <v>36.3636363636364</v>
@@ -8788,13 +8788,13 @@
         <v>350</v>
       </c>
       <c r="G104" t="n">
-        <v>2989.90424316526</v>
+        <v>2869.83608271002</v>
       </c>
       <c r="H104" t="n">
         <v>49000</v>
       </c>
       <c r="I104" t="n">
-        <v>23519.05003</v>
+        <v>18566.23841</v>
       </c>
       <c r="J104" t="n">
         <v>36.3636363636364</v>
@@ -8873,13 +8873,13 @@
         <v>350</v>
       </c>
       <c r="G105" t="n">
-        <v>2989.90424316526</v>
+        <v>2869.83608271002</v>
       </c>
       <c r="H105" t="n">
         <v>49000</v>
       </c>
       <c r="I105" t="n">
-        <v>23519.05003</v>
+        <v>18566.23841</v>
       </c>
       <c r="J105" t="n">
         <v>36.3636363636364</v>
@@ -8958,13 +8958,13 @@
         <v>350</v>
       </c>
       <c r="G106" t="n">
-        <v>2989.90424316526</v>
+        <v>2869.83608271002</v>
       </c>
       <c r="H106" t="n">
         <v>49000</v>
       </c>
       <c r="I106" t="n">
-        <v>23519.05003</v>
+        <v>18566.23841</v>
       </c>
       <c r="J106" t="n">
         <v>36.3636363636364</v>
@@ -9043,7 +9043,7 @@
         <v>0.01449</v>
       </c>
       <c r="G107" t="n">
-        <v>0.130450284000788</v>
+        <v>0.13041174575703</v>
       </c>
       <c r="H107" t="n">
         <v>4.5845137626817</v>
@@ -9054,7 +9054,7 @@
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
-        <v>0.0032</v>
+        <v>0.00314</v>
       </c>
       <c r="M107" t="n">
         <v>0.05463</v>
@@ -9124,7 +9124,7 @@
         <v>0.01449</v>
       </c>
       <c r="G108" t="n">
-        <v>0.130450284000788</v>
+        <v>0.13041174575703</v>
       </c>
       <c r="H108" t="n">
         <v>4.5845137626817</v>
@@ -9135,7 +9135,7 @@
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
-        <v>0.0032</v>
+        <v>0.00314</v>
       </c>
       <c r="M108" t="n">
         <v>0.05463</v>
@@ -9205,7 +9205,7 @@
         <v>0.032</v>
       </c>
       <c r="G109" t="n">
-        <v>0.346625461904688</v>
+        <v>0.346752403819175</v>
       </c>
       <c r="H109" t="n">
         <v>2.8946</v>
@@ -9216,7 +9216,7 @@
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
-        <v>0.00115</v>
+        <v>0.00166</v>
       </c>
       <c r="M109" t="n">
         <v>0.7802</v>
@@ -9286,7 +9286,7 @@
         <v>0.032</v>
       </c>
       <c r="G110" t="n">
-        <v>0.346625461904688</v>
+        <v>0.346752403819175</v>
       </c>
       <c r="H110" t="n">
         <v>2.8946</v>
@@ -9297,7 +9297,7 @@
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
-        <v>0.00115</v>
+        <v>0.00166</v>
       </c>
       <c r="M110" t="n">
         <v>0.7802</v>
@@ -9363,18 +9363,18 @@
         <v>0.14</v>
       </c>
       <c r="G111" t="n">
-        <v>0.674218616339646</v>
+        <v>0.67417276400579</v>
       </c>
       <c r="H111" t="n">
         <v>12.104</v>
       </c>
       <c r="I111" t="n">
-        <v>2.27625</v>
+        <v>2.27655</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
-        <v>0.01124</v>
+        <v>0.0109</v>
       </c>
       <c r="M111" t="n">
         <v>1.05525</v>
@@ -9440,18 +9440,18 @@
         <v>0.14</v>
       </c>
       <c r="G112" t="n">
-        <v>0.674218616339646</v>
+        <v>0.67417276400579</v>
       </c>
       <c r="H112" t="n">
         <v>12.104</v>
       </c>
       <c r="I112" t="n">
-        <v>2.27625</v>
+        <v>2.27655</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
-        <v>0.01124</v>
+        <v>0.0109</v>
       </c>
       <c r="M112" t="n">
         <v>1.05525</v>
@@ -10072,13 +10072,13 @@
         <v>355</v>
       </c>
       <c r="G120" t="n">
-        <v>3074.61466748179</v>
+        <v>2942.53969098102</v>
       </c>
       <c r="H120" t="n">
         <v>49000</v>
       </c>
       <c r="I120" t="n">
-        <v>26358.73337</v>
+        <v>19754.98455</v>
       </c>
       <c r="J120" t="n">
         <v>38</v>
@@ -10157,13 +10157,13 @@
         <v>355</v>
       </c>
       <c r="G121" t="n">
-        <v>3074.61466748179</v>
+        <v>2942.53969098102</v>
       </c>
       <c r="H121" t="n">
         <v>49000</v>
       </c>
       <c r="I121" t="n">
-        <v>26358.73337</v>
+        <v>19754.98455</v>
       </c>
       <c r="J121" t="n">
         <v>38</v>
@@ -10242,13 +10242,13 @@
         <v>355</v>
       </c>
       <c r="G122" t="n">
-        <v>3074.61466748179</v>
+        <v>2942.53969098102</v>
       </c>
       <c r="H122" t="n">
         <v>49000</v>
       </c>
       <c r="I122" t="n">
-        <v>26358.73337</v>
+        <v>19754.98455</v>
       </c>
       <c r="J122" t="n">
         <v>38</v>
@@ -10327,13 +10327,13 @@
         <v>355</v>
       </c>
       <c r="G123" t="n">
-        <v>3074.61466748179</v>
+        <v>2942.53969098102</v>
       </c>
       <c r="H123" t="n">
         <v>49000</v>
       </c>
       <c r="I123" t="n">
-        <v>26358.73337</v>
+        <v>19754.98455</v>
       </c>
       <c r="J123" t="n">
         <v>38</v>
@@ -10412,7 +10412,7 @@
         <v>0.01503</v>
       </c>
       <c r="G124" t="n">
-        <v>0.150396309968276</v>
+        <v>0.150376779930113</v>
       </c>
       <c r="H124" t="n">
         <v>4.5845137626817</v>
@@ -10493,7 +10493,7 @@
         <v>0.01503</v>
       </c>
       <c r="G125" t="n">
-        <v>0.150396309968276</v>
+        <v>0.150376779930113</v>
       </c>
       <c r="H125" t="n">
         <v>4.5845137626817</v>
@@ -10574,7 +10574,7 @@
         <v>0.0475</v>
       </c>
       <c r="G126" t="n">
-        <v>0.26748517378549</v>
+        <v>0.267698930547941</v>
       </c>
       <c r="H126" t="n">
         <v>1.93</v>
@@ -10585,7 +10585,7 @@
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
-        <v>0.00123</v>
+        <v>0.00178</v>
       </c>
       <c r="M126" t="n">
         <v>0.584</v>
@@ -10655,7 +10655,7 @@
         <v>0.0475</v>
       </c>
       <c r="G127" t="n">
-        <v>0.26748517378549</v>
+        <v>0.267698930547941</v>
       </c>
       <c r="H127" t="n">
         <v>1.93</v>
@@ -10666,7 +10666,7 @@
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
-        <v>0.00123</v>
+        <v>0.00178</v>
       </c>
       <c r="M127" t="n">
         <v>0.584</v>
@@ -10732,7 +10732,7 @@
         <v>0.17</v>
       </c>
       <c r="G128" t="n">
-        <v>0.61838019338103</v>
+        <v>0.618326665965219</v>
       </c>
       <c r="H128" t="n">
         <v>12.104</v>
@@ -10809,7 +10809,7 @@
         <v>0.17</v>
       </c>
       <c r="G129" t="n">
-        <v>0.61838019338103</v>
+        <v>0.618326665965219</v>
       </c>
       <c r="H129" t="n">
         <v>12.104</v>
@@ -11441,10 +11441,10 @@
         <v>430</v>
       </c>
       <c r="G137" t="n">
-        <v>1784.86074164643</v>
+        <v>1638.11076775669</v>
       </c>
       <c r="H137" t="n">
-        <v>26358.7333740894</v>
+        <v>19754.9845490509</v>
       </c>
       <c r="I137" t="n">
         <v>6900</v>
@@ -11526,10 +11526,10 @@
         <v>430</v>
       </c>
       <c r="G138" t="n">
-        <v>1784.86074164643</v>
+        <v>1638.11076775669</v>
       </c>
       <c r="H138" t="n">
-        <v>26358.7333740894</v>
+        <v>19754.9845490509</v>
       </c>
       <c r="I138" t="n">
         <v>6900</v>
@@ -11611,10 +11611,10 @@
         <v>430</v>
       </c>
       <c r="G139" t="n">
-        <v>1784.86074164643</v>
+        <v>1638.11076775669</v>
       </c>
       <c r="H139" t="n">
-        <v>26358.7333740894</v>
+        <v>19754.9845490509</v>
       </c>
       <c r="I139" t="n">
         <v>6900</v>
@@ -11696,10 +11696,10 @@
         <v>430</v>
       </c>
       <c r="G140" t="n">
-        <v>1784.86074164643</v>
+        <v>1638.11076775669</v>
       </c>
       <c r="H140" t="n">
-        <v>26358.7333740894</v>
+        <v>19754.9845490509</v>
       </c>
       <c r="I140" t="n">
         <v>6900</v>
@@ -11781,7 +11781,7 @@
         <v>0.01887</v>
       </c>
       <c r="G141" t="n">
-        <v>0.266761865613945</v>
+        <v>0.266749450112337</v>
       </c>
       <c r="H141" t="n">
         <v>4.5845137626817</v>
@@ -11862,7 +11862,7 @@
         <v>0.01887</v>
       </c>
       <c r="G142" t="n">
-        <v>0.266761865613945</v>
+        <v>0.266749450112337</v>
       </c>
       <c r="H142" t="n">
         <v>4.5845137626817</v>
@@ -11943,7 +11943,7 @@
         <v>0.055</v>
       </c>
       <c r="G143" t="n">
-        <v>0.244764965225222</v>
+        <v>0.245007797350226</v>
       </c>
       <c r="H143" t="n">
         <v>1.93</v>
@@ -11954,7 +11954,7 @@
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
-        <v>0.00189</v>
+        <v>0.00276</v>
       </c>
       <c r="M143" t="n">
         <v>0.5322</v>
@@ -12024,7 +12024,7 @@
         <v>0.055</v>
       </c>
       <c r="G144" t="n">
-        <v>0.244764965225222</v>
+        <v>0.245007797350226</v>
       </c>
       <c r="H144" t="n">
         <v>1.93</v>
@@ -12035,7 +12035,7 @@
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
-        <v>0.00189</v>
+        <v>0.00276</v>
       </c>
       <c r="M144" t="n">
         <v>0.5322</v>
@@ -12101,7 +12101,7 @@
         <v>0.17</v>
       </c>
       <c r="G145" t="n">
-        <v>0.884683586227842</v>
+        <v>0.884649409379937</v>
       </c>
       <c r="H145" t="n">
         <v>12.104</v>
@@ -12178,7 +12178,7 @@
         <v>0.17</v>
       </c>
       <c r="G146" t="n">
-        <v>0.884683586227842</v>
+        <v>0.884649409379937</v>
       </c>
       <c r="H146" t="n">
         <v>12.104</v>
@@ -12729,10 +12729,10 @@
         <v>490</v>
       </c>
       <c r="G153" t="n">
-        <v>1964.18412795451</v>
+        <v>1806.95201307264</v>
       </c>
       <c r="H153" t="n">
-        <v>26358.7333740894</v>
+        <v>19754.9845490509</v>
       </c>
       <c r="I153" t="n">
         <v>8520</v>
@@ -12814,10 +12814,10 @@
         <v>490</v>
       </c>
       <c r="G154" t="n">
-        <v>1964.18412795451</v>
+        <v>1806.95201307264</v>
       </c>
       <c r="H154" t="n">
-        <v>26358.7333740894</v>
+        <v>19754.9845490509</v>
       </c>
       <c r="I154" t="n">
         <v>8520</v>
@@ -12899,10 +12899,10 @@
         <v>490</v>
       </c>
       <c r="G155" t="n">
-        <v>1964.18412795451</v>
+        <v>1806.95201307264</v>
       </c>
       <c r="H155" t="n">
-        <v>26358.7333740894</v>
+        <v>19754.9845490509</v>
       </c>
       <c r="I155" t="n">
         <v>8520</v>
@@ -12984,10 +12984,10 @@
         <v>490</v>
       </c>
       <c r="G156" t="n">
-        <v>1964.18412795451</v>
+        <v>1806.95201307264</v>
       </c>
       <c r="H156" t="n">
-        <v>26358.7333740894</v>
+        <v>19754.9845490509</v>
       </c>
       <c r="I156" t="n">
         <v>8520</v>
@@ -13069,7 +13069,7 @@
         <v>0.02042</v>
       </c>
       <c r="G157" t="n">
-        <v>0.31287788151027</v>
+        <v>0.312874193461021</v>
       </c>
       <c r="H157" t="n">
         <v>4.5845137626817</v>
@@ -13150,7 +13150,7 @@
         <v>0.02042</v>
       </c>
       <c r="G158" t="n">
-        <v>0.31287788151027</v>
+        <v>0.312874193461021</v>
       </c>
       <c r="H158" t="n">
         <v>4.5845137626817</v>
@@ -13231,7 +13231,7 @@
         <v>0.0455</v>
       </c>
       <c r="G159" t="n">
-        <v>0.254355803942915</v>
+        <v>0.254757789358395</v>
       </c>
       <c r="H159" t="n">
         <v>1.93</v>
@@ -13242,7 +13242,7 @@
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
-        <v>0.00369</v>
+        <v>0.00481</v>
       </c>
       <c r="M159" t="n">
         <v>0.54432</v>
@@ -13312,7 +13312,7 @@
         <v>0.0455</v>
       </c>
       <c r="G160" t="n">
-        <v>0.254355803942915</v>
+        <v>0.254757789358395</v>
       </c>
       <c r="H160" t="n">
         <v>1.93</v>
@@ -13323,7 +13323,7 @@
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
-        <v>0.00369</v>
+        <v>0.00481</v>
       </c>
       <c r="M160" t="n">
         <v>0.54432</v>
@@ -13389,7 +13389,7 @@
         <v>0.17</v>
       </c>
       <c r="G161" t="n">
-        <v>0.997554419885911</v>
+        <v>0.997535191212257</v>
       </c>
       <c r="H161" t="n">
         <v>12.104</v>
@@ -13466,7 +13466,7 @@
         <v>0.17</v>
       </c>
       <c r="G162" t="n">
-        <v>0.997554419885911</v>
+        <v>0.997535191212257</v>
       </c>
       <c r="H162" t="n">
         <v>12.104</v>
@@ -13825,6 +13825,1294 @@
         </is>
       </c>
     </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Piakatutu at u/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.198102564102564</v>
+      </c>
+      <c r="H167" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1.6821</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0.08069999999999999</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0.22384</v>
+      </c>
+      <c r="O167" t="n">
+        <v>1805182</v>
+      </c>
+      <c r="P167" t="n">
+        <v>5545597</v>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T167" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Piakatutu at u/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.198102564102564</v>
+      </c>
+      <c r="H168" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1.6821</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0.08069999999999999</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0.22384</v>
+      </c>
+      <c r="O168" t="n">
+        <v>1805182</v>
+      </c>
+      <c r="P168" t="n">
+        <v>5545597</v>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T168" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U168" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Piakatutu at u/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>450</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1656.43550125771</v>
+      </c>
+      <c r="H169" t="n">
+        <v>19754.9845490509</v>
+      </c>
+      <c r="I169" t="n">
+        <v>4537.15</v>
+      </c>
+      <c r="J169" t="n">
+        <v>46.1538461538462</v>
+      </c>
+      <c r="K169" t="n">
+        <v>64.1025641025641</v>
+      </c>
+      <c r="L169" t="n">
+        <v>420</v>
+      </c>
+      <c r="M169" t="n">
+        <v>2860.35</v>
+      </c>
+      <c r="N169" t="n">
+        <v>3890</v>
+      </c>
+      <c r="O169" t="n">
+        <v>1805182</v>
+      </c>
+      <c r="P169" t="n">
+        <v>5545597</v>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T169" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Piakatutu at u/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>450</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1656.43550125771</v>
+      </c>
+      <c r="H170" t="n">
+        <v>19754.9845490509</v>
+      </c>
+      <c r="I170" t="n">
+        <v>4537.15</v>
+      </c>
+      <c r="J170" t="n">
+        <v>46.1538461538462</v>
+      </c>
+      <c r="K170" t="n">
+        <v>64.1025641025641</v>
+      </c>
+      <c r="L170" t="n">
+        <v>420</v>
+      </c>
+      <c r="M170" t="n">
+        <v>2860.35</v>
+      </c>
+      <c r="N170" t="n">
+        <v>3890</v>
+      </c>
+      <c r="O170" t="n">
+        <v>1805182</v>
+      </c>
+      <c r="P170" t="n">
+        <v>5545597</v>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T170" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U170" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Piakatutu at u/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>450</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1656.43550125771</v>
+      </c>
+      <c r="H171" t="n">
+        <v>19754.9845490509</v>
+      </c>
+      <c r="I171" t="n">
+        <v>4537.15</v>
+      </c>
+      <c r="J171" t="n">
+        <v>46.1538461538462</v>
+      </c>
+      <c r="K171" t="n">
+        <v>64.1025641025641</v>
+      </c>
+      <c r="L171" t="n">
+        <v>420</v>
+      </c>
+      <c r="M171" t="n">
+        <v>2860.35</v>
+      </c>
+      <c r="N171" t="n">
+        <v>3890</v>
+      </c>
+      <c r="O171" t="n">
+        <v>1805182</v>
+      </c>
+      <c r="P171" t="n">
+        <v>5545597</v>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T171" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U171" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Piakatutu at u/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>450</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1656.43550125771</v>
+      </c>
+      <c r="H172" t="n">
+        <v>19754.9845490509</v>
+      </c>
+      <c r="I172" t="n">
+        <v>4537.15</v>
+      </c>
+      <c r="J172" t="n">
+        <v>46.1538461538462</v>
+      </c>
+      <c r="K172" t="n">
+        <v>64.1025641025641</v>
+      </c>
+      <c r="L172" t="n">
+        <v>420</v>
+      </c>
+      <c r="M172" t="n">
+        <v>2860.35</v>
+      </c>
+      <c r="N172" t="n">
+        <v>3890</v>
+      </c>
+      <c r="O172" t="n">
+        <v>1805182</v>
+      </c>
+      <c r="P172" t="n">
+        <v>5545597</v>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T172" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Piakatutu at u/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>0.01899</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.524906019281535</v>
+      </c>
+      <c r="H173" t="n">
+        <v>6.74824109968983</v>
+      </c>
+      <c r="I173" t="n">
+        <v>4.5073</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>0.0064</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0.07509</v>
+      </c>
+      <c r="N173" t="n">
+        <v>3.47404</v>
+      </c>
+      <c r="O173" t="n">
+        <v>1805182</v>
+      </c>
+      <c r="P173" t="n">
+        <v>5545597</v>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T173" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Piakatutu at u/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>0.01899</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.524906019281535</v>
+      </c>
+      <c r="H174" t="n">
+        <v>6.74824109968983</v>
+      </c>
+      <c r="I174" t="n">
+        <v>4.5073</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>0.0064</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0.07509</v>
+      </c>
+      <c r="N174" t="n">
+        <v>3.47404</v>
+      </c>
+      <c r="O174" t="n">
+        <v>1805182</v>
+      </c>
+      <c r="P174" t="n">
+        <v>5545597</v>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T174" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Piakatutu at u/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.306546660814305</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1.3585</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>0.00436</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0.72755</v>
+      </c>
+      <c r="N175" t="n">
+        <v>1.02214</v>
+      </c>
+      <c r="O175" t="n">
+        <v>1805182</v>
+      </c>
+      <c r="P175" t="n">
+        <v>5545597</v>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T175" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Piakatutu at u/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.306546660814305</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1.3585</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>0.00436</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0.72755</v>
+      </c>
+      <c r="N176" t="n">
+        <v>1.02214</v>
+      </c>
+      <c r="O176" t="n">
+        <v>1805182</v>
+      </c>
+      <c r="P176" t="n">
+        <v>5545597</v>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T176" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Piakatutu at u/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G177" t="n">
+        <v>1.5609358974359</v>
+      </c>
+      <c r="H177" t="n">
+        <v>18.12</v>
+      </c>
+      <c r="I177" t="n">
+        <v>12.0887</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>0.0235</v>
+      </c>
+      <c r="M177" t="n">
+        <v>1.22074</v>
+      </c>
+      <c r="N177" t="n">
+        <v>7.0232</v>
+      </c>
+      <c r="O177" t="n">
+        <v>1805182</v>
+      </c>
+      <c r="P177" t="n">
+        <v>5545597</v>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T177" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Piakatutu at u/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G178" t="n">
+        <v>1.5609358974359</v>
+      </c>
+      <c r="H178" t="n">
+        <v>18.12</v>
+      </c>
+      <c r="I178" t="n">
+        <v>12.0887</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>0.0235</v>
+      </c>
+      <c r="M178" t="n">
+        <v>1.22074</v>
+      </c>
+      <c r="N178" t="n">
+        <v>7.0232</v>
+      </c>
+      <c r="O178" t="n">
+        <v>1805182</v>
+      </c>
+      <c r="P178" t="n">
+        <v>5545597</v>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T178" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Piakatutu at u/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G179" t="n">
+        <v>3.33538461538462</v>
+      </c>
+      <c r="H179" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="I179" t="n">
+        <v>18.145</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="M179" t="n">
+        <v>3.001</v>
+      </c>
+      <c r="N179" t="n">
+        <v>9.5396</v>
+      </c>
+      <c r="O179" t="n">
+        <v>1805182</v>
+      </c>
+      <c r="P179" t="n">
+        <v>5545597</v>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T179" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Piakatutu at u/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G180" t="n">
+        <v>3.33538461538462</v>
+      </c>
+      <c r="H180" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="I180" t="n">
+        <v>18.145</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="M180" t="n">
+        <v>3.001</v>
+      </c>
+      <c r="N180" t="n">
+        <v>9.5396</v>
+      </c>
+      <c r="O180" t="n">
+        <v>1805182</v>
+      </c>
+      <c r="P180" t="n">
+        <v>5545597</v>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T180" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Piakatutu at u/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.641692307692308</v>
+      </c>
+      <c r="H181" t="n">
+        <v>5</v>
+      </c>
+      <c r="I181" t="n">
+        <v>3.4105</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0.9214</v>
+      </c>
+      <c r="N181" t="n">
+        <v>1.6796</v>
+      </c>
+      <c r="O181" t="n">
+        <v>1805182</v>
+      </c>
+      <c r="P181" t="n">
+        <v>5545597</v>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T181" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Piakatutu at u/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.641692307692308</v>
+      </c>
+      <c r="H182" t="n">
+        <v>5</v>
+      </c>
+      <c r="I182" t="n">
+        <v>3.4105</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="M182" t="n">
+        <v>0.9214</v>
+      </c>
+      <c r="N182" t="n">
+        <v>1.6796</v>
+      </c>
+      <c r="O182" t="n">
+        <v>1805182</v>
+      </c>
+      <c r="P182" t="n">
+        <v>5545597</v>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T182" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U182" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/PiakatutuatusSansonSTP_c53fb1a033.xlsx
+++ b/state_results/Rivers/PiakatutuatusSansonSTP_c53fb1a033.xlsx
@@ -8703,13 +8703,13 @@
         <v>350</v>
       </c>
       <c r="G103" t="n">
-        <v>2869.83608271002</v>
+        <v>2785.3437240666</v>
       </c>
       <c r="H103" t="n">
         <v>49000</v>
       </c>
       <c r="I103" t="n">
-        <v>18566.23841</v>
+        <v>15080.92862</v>
       </c>
       <c r="J103" t="n">
         <v>36.3636363636364</v>
@@ -8788,13 +8788,13 @@
         <v>350</v>
       </c>
       <c r="G104" t="n">
-        <v>2869.83608271002</v>
+        <v>2785.3437240666</v>
       </c>
       <c r="H104" t="n">
         <v>49000</v>
       </c>
       <c r="I104" t="n">
-        <v>18566.23841</v>
+        <v>15080.92862</v>
       </c>
       <c r="J104" t="n">
         <v>36.3636363636364</v>
@@ -8873,13 +8873,13 @@
         <v>350</v>
       </c>
       <c r="G105" t="n">
-        <v>2869.83608271002</v>
+        <v>2785.3437240666</v>
       </c>
       <c r="H105" t="n">
         <v>49000</v>
       </c>
       <c r="I105" t="n">
-        <v>18566.23841</v>
+        <v>15080.92862</v>
       </c>
       <c r="J105" t="n">
         <v>36.3636363636364</v>
@@ -8958,13 +8958,13 @@
         <v>350</v>
       </c>
       <c r="G106" t="n">
-        <v>2869.83608271002</v>
+        <v>2785.3437240666</v>
       </c>
       <c r="H106" t="n">
         <v>49000</v>
       </c>
       <c r="I106" t="n">
-        <v>18566.23841</v>
+        <v>15080.92862</v>
       </c>
       <c r="J106" t="n">
         <v>36.3636363636364</v>
@@ -10072,13 +10072,13 @@
         <v>355</v>
       </c>
       <c r="G120" t="n">
-        <v>2942.53969098102</v>
+        <v>2849.59809647326</v>
       </c>
       <c r="H120" t="n">
         <v>49000</v>
       </c>
       <c r="I120" t="n">
-        <v>19754.98455</v>
+        <v>15107.90482</v>
       </c>
       <c r="J120" t="n">
         <v>38</v>
@@ -10157,13 +10157,13 @@
         <v>355</v>
       </c>
       <c r="G121" t="n">
-        <v>2942.53969098102</v>
+        <v>2849.59809647326</v>
       </c>
       <c r="H121" t="n">
         <v>49000</v>
       </c>
       <c r="I121" t="n">
-        <v>19754.98455</v>
+        <v>15107.90482</v>
       </c>
       <c r="J121" t="n">
         <v>38</v>
@@ -10242,13 +10242,13 @@
         <v>355</v>
       </c>
       <c r="G122" t="n">
-        <v>2942.53969098102</v>
+        <v>2849.59809647326</v>
       </c>
       <c r="H122" t="n">
         <v>49000</v>
       </c>
       <c r="I122" t="n">
-        <v>19754.98455</v>
+        <v>15107.90482</v>
       </c>
       <c r="J122" t="n">
         <v>38</v>
@@ -10327,13 +10327,13 @@
         <v>355</v>
       </c>
       <c r="G123" t="n">
-        <v>2942.53969098102</v>
+        <v>2849.59809647326</v>
       </c>
       <c r="H123" t="n">
         <v>49000</v>
       </c>
       <c r="I123" t="n">
-        <v>19754.98455</v>
+        <v>15107.90482</v>
       </c>
       <c r="J123" t="n">
         <v>38</v>
@@ -11441,10 +11441,10 @@
         <v>430</v>
       </c>
       <c r="G137" t="n">
-        <v>1638.11076775669</v>
+        <v>1534.84232941473</v>
       </c>
       <c r="H137" t="n">
-        <v>19754.9845490509</v>
+        <v>15107.904823663</v>
       </c>
       <c r="I137" t="n">
         <v>6900</v>
@@ -11526,10 +11526,10 @@
         <v>430</v>
       </c>
       <c r="G138" t="n">
-        <v>1638.11076775669</v>
+        <v>1534.84232941473</v>
       </c>
       <c r="H138" t="n">
-        <v>19754.9845490509</v>
+        <v>15107.904823663</v>
       </c>
       <c r="I138" t="n">
         <v>6900</v>
@@ -11611,10 +11611,10 @@
         <v>430</v>
       </c>
       <c r="G139" t="n">
-        <v>1638.11076775669</v>
+        <v>1534.84232941473</v>
       </c>
       <c r="H139" t="n">
-        <v>19754.9845490509</v>
+        <v>15107.904823663</v>
       </c>
       <c r="I139" t="n">
         <v>6900</v>
@@ -11696,10 +11696,10 @@
         <v>430</v>
       </c>
       <c r="G140" t="n">
-        <v>1638.11076775669</v>
+        <v>1534.84232941473</v>
       </c>
       <c r="H140" t="n">
-        <v>19754.9845490509</v>
+        <v>15107.904823663</v>
       </c>
       <c r="I140" t="n">
         <v>6900</v>
@@ -12729,10 +12729,10 @@
         <v>490</v>
       </c>
       <c r="G153" t="n">
-        <v>1806.95201307264</v>
+        <v>1696.30725770626</v>
       </c>
       <c r="H153" t="n">
-        <v>19754.9845490509</v>
+        <v>15107.904823663</v>
       </c>
       <c r="I153" t="n">
         <v>8520</v>
@@ -12814,10 +12814,10 @@
         <v>490</v>
       </c>
       <c r="G154" t="n">
-        <v>1806.95201307264</v>
+        <v>1696.30725770626</v>
       </c>
       <c r="H154" t="n">
-        <v>19754.9845490509</v>
+        <v>15107.904823663</v>
       </c>
       <c r="I154" t="n">
         <v>8520</v>
@@ -12899,10 +12899,10 @@
         <v>490</v>
       </c>
       <c r="G155" t="n">
-        <v>1806.95201307264</v>
+        <v>1696.30725770626</v>
       </c>
       <c r="H155" t="n">
-        <v>19754.9845490509</v>
+        <v>15107.904823663</v>
       </c>
       <c r="I155" t="n">
         <v>8520</v>
@@ -12984,10 +12984,10 @@
         <v>490</v>
       </c>
       <c r="G156" t="n">
-        <v>1806.95201307264</v>
+        <v>1696.30725770626</v>
       </c>
       <c r="H156" t="n">
-        <v>19754.9845490509</v>
+        <v>15107.904823663</v>
       </c>
       <c r="I156" t="n">
         <v>8520</v>
@@ -14017,10 +14017,10 @@
         <v>450</v>
       </c>
       <c r="G169" t="n">
-        <v>1656.43550125771</v>
+        <v>1537.27961086315</v>
       </c>
       <c r="H169" t="n">
-        <v>19754.9845490509</v>
+        <v>15107.904823663</v>
       </c>
       <c r="I169" t="n">
         <v>4537.15</v>
@@ -14102,10 +14102,10 @@
         <v>450</v>
       </c>
       <c r="G170" t="n">
-        <v>1656.43550125771</v>
+        <v>1537.27961086315</v>
       </c>
       <c r="H170" t="n">
-        <v>19754.9845490509</v>
+        <v>15107.904823663</v>
       </c>
       <c r="I170" t="n">
         <v>4537.15</v>
@@ -14187,10 +14187,10 @@
         <v>450</v>
       </c>
       <c r="G171" t="n">
-        <v>1656.43550125771</v>
+        <v>1537.27961086315</v>
       </c>
       <c r="H171" t="n">
-        <v>19754.9845490509</v>
+        <v>15107.904823663</v>
       </c>
       <c r="I171" t="n">
         <v>4537.15</v>
@@ -14272,10 +14272,10 @@
         <v>450</v>
       </c>
       <c r="G172" t="n">
-        <v>1656.43550125771</v>
+        <v>1537.27961086315</v>
       </c>
       <c r="H172" t="n">
-        <v>19754.9845490509</v>
+        <v>15107.904823663</v>
       </c>
       <c r="I172" t="n">
         <v>4537.15</v>

--- a/state_results/Rivers/PiakatutuatusSansonSTP_c53fb1a033.xlsx
+++ b/state_results/Rivers/PiakatutuatusSansonSTP_c53fb1a033.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="69">
   <si>
     <t>site name</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -575,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U182"/>
+  <dimension ref="A1:U198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -660,7 +663,7 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F2">
         <v>0.0735</v>
@@ -675,7 +678,7 @@
         <v>0.2408</v>
       </c>
       <c r="L2">
-        <v>0.0435</v>
+        <v>0.0665</v>
       </c>
       <c r="M2">
         <v>0.15764</v>
@@ -690,19 +693,19 @@
         <v>5545597</v>
       </c>
       <c r="Q2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -719,7 +722,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F3">
         <v>0.0735</v>
@@ -734,7 +737,7 @@
         <v>0.2408</v>
       </c>
       <c r="L3">
-        <v>0.0435</v>
+        <v>0.0665</v>
       </c>
       <c r="M3">
         <v>0.15764</v>
@@ -749,19 +752,19 @@
         <v>5545597</v>
       </c>
       <c r="Q3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -778,13 +781,13 @@
         <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F4">
         <v>663.5</v>
       </c>
       <c r="G4">
-        <v>9820.78571428571</v>
+        <v>9820.764285714289</v>
       </c>
       <c r="H4">
         <v>198629</v>
@@ -799,13 +802,13 @@
         <v>66.0714285714286</v>
       </c>
       <c r="L4">
-        <v>525</v>
+        <v>695</v>
       </c>
       <c r="M4">
         <v>9781.200000000001</v>
       </c>
       <c r="N4">
-        <v>24582.42</v>
+        <v>24582.126</v>
       </c>
       <c r="O4">
         <v>1805182</v>
@@ -814,19 +817,19 @@
         <v>5545597</v>
       </c>
       <c r="Q4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -843,13 +846,13 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F5">
         <v>663.5</v>
       </c>
       <c r="G5">
-        <v>9820.78571428571</v>
+        <v>9820.764285714289</v>
       </c>
       <c r="H5">
         <v>198629</v>
@@ -864,13 +867,13 @@
         <v>66.0714285714286</v>
       </c>
       <c r="L5">
-        <v>525</v>
+        <v>695</v>
       </c>
       <c r="M5">
         <v>9781.200000000001</v>
       </c>
       <c r="N5">
-        <v>24582.42</v>
+        <v>24582.126</v>
       </c>
       <c r="O5">
         <v>1805182</v>
@@ -879,19 +882,19 @@
         <v>5545597</v>
       </c>
       <c r="Q5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -908,13 +911,13 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F6">
         <v>663.5</v>
       </c>
       <c r="G6">
-        <v>9820.78571428571</v>
+        <v>9820.764285714289</v>
       </c>
       <c r="H6">
         <v>198629</v>
@@ -929,13 +932,13 @@
         <v>66.0714285714286</v>
       </c>
       <c r="L6">
-        <v>525</v>
+        <v>695</v>
       </c>
       <c r="M6">
         <v>9781.200000000001</v>
       </c>
       <c r="N6">
-        <v>24582.42</v>
+        <v>24582.126</v>
       </c>
       <c r="O6">
         <v>1805182</v>
@@ -944,19 +947,19 @@
         <v>5545597</v>
       </c>
       <c r="Q6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -973,13 +976,13 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F7">
         <v>663.5</v>
       </c>
       <c r="G7">
-        <v>9820.78571428571</v>
+        <v>9820.764285714289</v>
       </c>
       <c r="H7">
         <v>198629</v>
@@ -994,13 +997,13 @@
         <v>66.0714285714286</v>
       </c>
       <c r="L7">
-        <v>525</v>
+        <v>695</v>
       </c>
       <c r="M7">
         <v>9781.200000000001</v>
       </c>
       <c r="N7">
-        <v>24582.42</v>
+        <v>24582.126</v>
       </c>
       <c r="O7">
         <v>1805182</v>
@@ -1009,19 +1012,19 @@
         <v>5545597</v>
       </c>
       <c r="Q7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1038,13 +1041,13 @@
         <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F8">
         <v>0.02095</v>
       </c>
       <c r="G8">
-        <v>0.0404170228166976</v>
+        <v>0.0404172929445715</v>
       </c>
       <c r="H8">
         <v>0.344405594405594</v>
@@ -1053,7 +1056,7 @@
         <v>0.15244</v>
       </c>
       <c r="L8">
-        <v>0.02006</v>
+        <v>0.02203</v>
       </c>
       <c r="M8">
         <v>0.05576</v>
@@ -1068,19 +1071,19 @@
         <v>5545597</v>
       </c>
       <c r="Q8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1097,13 +1100,13 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F9">
         <v>0.02095</v>
       </c>
       <c r="G9">
-        <v>0.0404170228166976</v>
+        <v>0.0404172929445715</v>
       </c>
       <c r="H9">
         <v>0.344405594405594</v>
@@ -1112,7 +1115,7 @@
         <v>0.15244</v>
       </c>
       <c r="L9">
-        <v>0.02006</v>
+        <v>0.02203</v>
       </c>
       <c r="M9">
         <v>0.05576</v>
@@ -1127,19 +1130,19 @@
         <v>5545597</v>
       </c>
       <c r="Q9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1156,13 +1159,13 @@
         <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10">
         <v>0.1535</v>
       </c>
       <c r="G10">
-        <v>0.479964003498013</v>
+        <v>0.479947024015624</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -1171,7 +1174,7 @@
         <v>2.626</v>
       </c>
       <c r="L10">
-        <v>0.0029</v>
+        <v>0.0091</v>
       </c>
       <c r="M10">
         <v>0.98</v>
@@ -1186,19 +1189,19 @@
         <v>5545597</v>
       </c>
       <c r="Q10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1215,13 +1218,13 @@
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11">
         <v>0.1535</v>
       </c>
       <c r="G11">
-        <v>0.479964003498013</v>
+        <v>0.479947024015624</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1230,7 +1233,7 @@
         <v>2.626</v>
       </c>
       <c r="L11">
-        <v>0.0029</v>
+        <v>0.0091</v>
       </c>
       <c r="M11">
         <v>0.98</v>
@@ -1245,19 +1248,19 @@
         <v>5545597</v>
       </c>
       <c r="Q11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1271,7 +1274,7 @@
         <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F12">
         <v>0.301</v>
@@ -1286,7 +1289,7 @@
         <v>2.3273</v>
       </c>
       <c r="L12">
-        <v>0.0545</v>
+        <v>0.077</v>
       </c>
       <c r="M12">
         <v>1.0447</v>
@@ -1301,19 +1304,19 @@
         <v>5545597</v>
       </c>
       <c r="Q12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1327,7 +1330,7 @@
         <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F13">
         <v>0.301</v>
@@ -1342,7 +1345,7 @@
         <v>2.3273</v>
       </c>
       <c r="L13">
-        <v>0.0545</v>
+        <v>0.077</v>
       </c>
       <c r="M13">
         <v>1.0447</v>
@@ -1357,19 +1360,19 @@
         <v>5545597</v>
       </c>
       <c r="Q13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1383,7 +1386,7 @@
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F14">
         <v>1.99</v>
@@ -1398,7 +1401,7 @@
         <v>5.9085</v>
       </c>
       <c r="L14">
-        <v>2.03</v>
+        <v>1.84</v>
       </c>
       <c r="M14">
         <v>3.11728</v>
@@ -1413,19 +1416,19 @@
         <v>5545597</v>
       </c>
       <c r="Q14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1439,7 +1442,7 @@
         <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F15">
         <v>1.99</v>
@@ -1454,7 +1457,7 @@
         <v>5.9085</v>
       </c>
       <c r="L15">
-        <v>2.03</v>
+        <v>1.84</v>
       </c>
       <c r="M15">
         <v>3.11728</v>
@@ -1469,19 +1472,19 @@
         <v>5545597</v>
       </c>
       <c r="Q15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1495,7 +1498,7 @@
         <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F16">
         <v>0.332</v>
@@ -1510,7 +1513,7 @@
         <v>1.83</v>
       </c>
       <c r="L16">
-        <v>0.43</v>
+        <v>0.382</v>
       </c>
       <c r="M16">
         <v>0.7829199999999999</v>
@@ -1525,19 +1528,19 @@
         <v>5545597</v>
       </c>
       <c r="Q16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1551,7 +1554,7 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F17">
         <v>0.332</v>
@@ -1566,7 +1569,7 @@
         <v>1.83</v>
       </c>
       <c r="L17">
-        <v>0.43</v>
+        <v>0.382</v>
       </c>
       <c r="M17">
         <v>0.7829199999999999</v>
@@ -1581,19 +1584,19 @@
         <v>5545597</v>
       </c>
       <c r="Q17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1610,7 +1613,7 @@
         <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F18">
         <v>0.059</v>
@@ -1625,7 +1628,7 @@
         <v>0.1664</v>
       </c>
       <c r="L18">
-        <v>0.0415</v>
+        <v>0.0455</v>
       </c>
       <c r="M18">
         <v>0.1049</v>
@@ -1640,19 +1643,19 @@
         <v>5545597</v>
       </c>
       <c r="Q18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1669,7 +1672,7 @@
         <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F19">
         <v>0.059</v>
@@ -1684,7 +1687,7 @@
         <v>0.1664</v>
       </c>
       <c r="L19">
-        <v>0.0415</v>
+        <v>0.0455</v>
       </c>
       <c r="M19">
         <v>0.1049</v>
@@ -1699,19 +1702,19 @@
         <v>5545597</v>
       </c>
       <c r="Q19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1728,7 +1731,7 @@
         <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F20">
         <v>558.5</v>
@@ -1749,7 +1752,7 @@
         <v>58.9285714285714</v>
       </c>
       <c r="L20">
-        <v>275.5</v>
+        <v>499.5</v>
       </c>
       <c r="M20">
         <v>4777.64</v>
@@ -1764,19 +1767,19 @@
         <v>5545597</v>
       </c>
       <c r="Q20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1793,7 +1796,7 @@
         <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F21">
         <v>558.5</v>
@@ -1814,7 +1817,7 @@
         <v>58.9285714285714</v>
       </c>
       <c r="L21">
-        <v>275.5</v>
+        <v>499.5</v>
       </c>
       <c r="M21">
         <v>4777.64</v>
@@ -1829,19 +1832,19 @@
         <v>5545597</v>
       </c>
       <c r="Q21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1858,7 +1861,7 @@
         <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F22">
         <v>558.5</v>
@@ -1879,7 +1882,7 @@
         <v>58.9285714285714</v>
       </c>
       <c r="L22">
-        <v>275.5</v>
+        <v>499.5</v>
       </c>
       <c r="M22">
         <v>4777.64</v>
@@ -1894,19 +1897,19 @@
         <v>5545597</v>
       </c>
       <c r="Q22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1923,7 +1926,7 @@
         <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F23">
         <v>558.5</v>
@@ -1944,7 +1947,7 @@
         <v>58.9285714285714</v>
       </c>
       <c r="L23">
-        <v>275.5</v>
+        <v>499.5</v>
       </c>
       <c r="M23">
         <v>4777.64</v>
@@ -1959,19 +1962,19 @@
         <v>5545597</v>
       </c>
       <c r="Q23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1988,13 +1991,13 @@
         <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F24">
         <v>0.02095</v>
       </c>
       <c r="G24">
-        <v>0.0354499247078622</v>
+        <v>0.0354501948357362</v>
       </c>
       <c r="H24">
         <v>0.22693129342339</v>
@@ -2003,7 +2006,7 @@
         <v>0.15244</v>
       </c>
       <c r="L24">
-        <v>0.02131</v>
+        <v>0.02203</v>
       </c>
       <c r="M24">
         <v>0.05092</v>
@@ -2018,19 +2021,19 @@
         <v>5545597</v>
       </c>
       <c r="Q24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2047,13 +2050,13 @@
         <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F25">
         <v>0.02095</v>
       </c>
       <c r="G25">
-        <v>0.0354499247078622</v>
+        <v>0.0354501948357362</v>
       </c>
       <c r="H25">
         <v>0.22693129342339</v>
@@ -2062,7 +2065,7 @@
         <v>0.15244</v>
       </c>
       <c r="L25">
-        <v>0.02131</v>
+        <v>0.02203</v>
       </c>
       <c r="M25">
         <v>0.05092</v>
@@ -2077,19 +2080,19 @@
         <v>5545597</v>
       </c>
       <c r="Q25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2106,13 +2109,13 @@
         <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F26">
         <v>0.07199999999999999</v>
       </c>
       <c r="G26">
-        <v>0.355829360016225</v>
+        <v>0.355815412584262</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -2121,7 +2124,7 @@
         <v>1.3508</v>
       </c>
       <c r="L26">
-        <v>0.00185</v>
+        <v>0.0065</v>
       </c>
       <c r="M26">
         <v>0.6582</v>
@@ -2136,19 +2139,19 @@
         <v>5545597</v>
       </c>
       <c r="Q26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2165,13 +2168,13 @@
         <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F27">
         <v>0.07199999999999999</v>
       </c>
       <c r="G27">
-        <v>0.355829360016225</v>
+        <v>0.355815412584262</v>
       </c>
       <c r="H27">
         <v>4</v>
@@ -2180,7 +2183,7 @@
         <v>1.3508</v>
       </c>
       <c r="L27">
-        <v>0.00185</v>
+        <v>0.0065</v>
       </c>
       <c r="M27">
         <v>0.6582</v>
@@ -2195,19 +2198,19 @@
         <v>5545597</v>
       </c>
       <c r="Q27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2221,7 +2224,7 @@
         <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F28">
         <v>0.27945</v>
@@ -2236,7 +2239,7 @@
         <v>1.39562</v>
       </c>
       <c r="L28">
-        <v>0.06950000000000001</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="M28">
         <v>0.7169</v>
@@ -2251,19 +2254,19 @@
         <v>5545597</v>
       </c>
       <c r="Q28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2277,7 +2280,7 @@
         <v>45</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F29">
         <v>0.27945</v>
@@ -2292,7 +2295,7 @@
         <v>1.39562</v>
       </c>
       <c r="L29">
-        <v>0.06950000000000001</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="M29">
         <v>0.7169</v>
@@ -2307,19 +2310,19 @@
         <v>5545597</v>
       </c>
       <c r="Q29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2333,7 +2336,7 @@
         <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F30">
         <v>1.66</v>
@@ -2348,7 +2351,7 @@
         <v>6.2677</v>
       </c>
       <c r="L30">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="M30">
         <v>2.9</v>
@@ -2363,19 +2366,19 @@
         <v>5545597</v>
       </c>
       <c r="Q30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2389,7 +2392,7 @@
         <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F31">
         <v>1.66</v>
@@ -2404,7 +2407,7 @@
         <v>6.2677</v>
       </c>
       <c r="L31">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="M31">
         <v>2.9</v>
@@ -2419,19 +2422,19 @@
         <v>5545597</v>
       </c>
       <c r="Q31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2445,7 +2448,7 @@
         <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F32">
         <v>0.337</v>
@@ -2460,7 +2463,7 @@
         <v>1.388</v>
       </c>
       <c r="L32">
-        <v>0.401</v>
+        <v>0.379</v>
       </c>
       <c r="M32">
         <v>0.77682</v>
@@ -2475,19 +2478,19 @@
         <v>5545597</v>
       </c>
       <c r="Q32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2501,7 +2504,7 @@
         <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F33">
         <v>0.337</v>
@@ -2516,7 +2519,7 @@
         <v>1.388</v>
       </c>
       <c r="L33">
-        <v>0.401</v>
+        <v>0.379</v>
       </c>
       <c r="M33">
         <v>0.77682</v>
@@ -2531,19 +2534,19 @@
         <v>5545597</v>
       </c>
       <c r="Q33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2560,7 +2563,7 @@
         <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F34">
         <v>0.051</v>
@@ -2575,7 +2578,7 @@
         <v>0.18495</v>
       </c>
       <c r="L34">
-        <v>0.038</v>
+        <v>0.0395</v>
       </c>
       <c r="M34">
         <v>0.09862</v>
@@ -2590,19 +2593,19 @@
         <v>5545597</v>
       </c>
       <c r="Q34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2619,7 +2622,7 @@
         <v>46</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F35">
         <v>0.051</v>
@@ -2634,7 +2637,7 @@
         <v>0.18495</v>
       </c>
       <c r="L35">
-        <v>0.038</v>
+        <v>0.0395</v>
       </c>
       <c r="M35">
         <v>0.09862</v>
@@ -2649,19 +2652,19 @@
         <v>5545597</v>
       </c>
       <c r="Q35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2678,7 +2681,7 @@
         <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F36">
         <v>376</v>
@@ -2699,7 +2702,7 @@
         <v>54.3859649122807</v>
       </c>
       <c r="L36">
-        <v>240.5</v>
+        <v>355</v>
       </c>
       <c r="M36">
         <v>2565.8</v>
@@ -2714,19 +2717,19 @@
         <v>5545597</v>
       </c>
       <c r="Q36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2743,7 +2746,7 @@
         <v>46</v>
       </c>
       <c r="E37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F37">
         <v>376</v>
@@ -2764,7 +2767,7 @@
         <v>54.3859649122807</v>
       </c>
       <c r="L37">
-        <v>240.5</v>
+        <v>355</v>
       </c>
       <c r="M37">
         <v>2565.8</v>
@@ -2779,19 +2782,19 @@
         <v>5545597</v>
       </c>
       <c r="Q37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2808,7 +2811,7 @@
         <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F38">
         <v>376</v>
@@ -2829,7 +2832,7 @@
         <v>54.3859649122807</v>
       </c>
       <c r="L38">
-        <v>240.5</v>
+        <v>355</v>
       </c>
       <c r="M38">
         <v>2565.8</v>
@@ -2844,19 +2847,19 @@
         <v>5545597</v>
       </c>
       <c r="Q38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2873,7 +2876,7 @@
         <v>46</v>
       </c>
       <c r="E39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F39">
         <v>376</v>
@@ -2894,7 +2897,7 @@
         <v>54.3859649122807</v>
       </c>
       <c r="L39">
-        <v>240.5</v>
+        <v>355</v>
       </c>
       <c r="M39">
         <v>2565.8</v>
@@ -2909,19 +2912,19 @@
         <v>5545597</v>
       </c>
       <c r="Q39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2938,13 +2941,13 @@
         <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F40">
         <v>0.01748</v>
       </c>
       <c r="G40">
-        <v>0.0341923720860649</v>
+        <v>0.034192360702596</v>
       </c>
       <c r="H40">
         <v>0.22693129342339</v>
@@ -2968,19 +2971,19 @@
         <v>5545597</v>
       </c>
       <c r="Q40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2997,13 +3000,13 @@
         <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F41">
         <v>0.01748</v>
       </c>
       <c r="G41">
-        <v>0.0341923720860649</v>
+        <v>0.034192360702596</v>
       </c>
       <c r="H41">
         <v>0.22693129342339</v>
@@ -3027,19 +3030,19 @@
         <v>5545597</v>
       </c>
       <c r="Q41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3056,13 +3059,13 @@
         <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F42">
         <v>0.0421</v>
       </c>
       <c r="G42">
-        <v>0.422270362761093</v>
+        <v>0.422268696899743</v>
       </c>
       <c r="H42">
         <v>4</v>
@@ -3071,7 +3074,7 @@
         <v>2.66584</v>
       </c>
       <c r="L42">
-        <v>0.00165</v>
+        <v>0.005</v>
       </c>
       <c r="M42">
         <v>0.76589</v>
@@ -3086,19 +3089,19 @@
         <v>5545597</v>
       </c>
       <c r="Q42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3115,13 +3118,13 @@
         <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F43">
         <v>0.0421</v>
       </c>
       <c r="G43">
-        <v>0.422270362761093</v>
+        <v>0.422268696899743</v>
       </c>
       <c r="H43">
         <v>4</v>
@@ -3130,7 +3133,7 @@
         <v>2.66584</v>
       </c>
       <c r="L43">
-        <v>0.00165</v>
+        <v>0.005</v>
       </c>
       <c r="M43">
         <v>0.76589</v>
@@ -3145,19 +3148,19 @@
         <v>5545597</v>
       </c>
       <c r="Q43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3171,13 +3174,13 @@
         <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F44">
         <v>0.125</v>
       </c>
       <c r="G44">
-        <v>0.507443310913289</v>
+        <v>0.507441466922506</v>
       </c>
       <c r="H44">
         <v>4.108</v>
@@ -3186,7 +3189,7 @@
         <v>2.70694</v>
       </c>
       <c r="L44">
-        <v>0.03425</v>
+        <v>0.06950000000000001</v>
       </c>
       <c r="M44">
         <v>0.85906</v>
@@ -3201,19 +3204,19 @@
         <v>5545597</v>
       </c>
       <c r="Q44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3227,13 +3230,13 @@
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F45">
         <v>0.125</v>
       </c>
       <c r="G45">
-        <v>0.507443310913289</v>
+        <v>0.507441466922506</v>
       </c>
       <c r="H45">
         <v>4.108</v>
@@ -3242,7 +3245,7 @@
         <v>2.70694</v>
       </c>
       <c r="L45">
-        <v>0.03425</v>
+        <v>0.06950000000000001</v>
       </c>
       <c r="M45">
         <v>0.85906</v>
@@ -3257,19 +3260,19 @@
         <v>5545597</v>
       </c>
       <c r="Q45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3283,7 +3286,7 @@
         <v>46</v>
       </c>
       <c r="E46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F46">
         <v>1.7</v>
@@ -3298,7 +3301,7 @@
         <v>6.4325</v>
       </c>
       <c r="L46">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="M46">
         <v>4.01377</v>
@@ -3313,19 +3316,19 @@
         <v>5545597</v>
       </c>
       <c r="Q46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3339,7 +3342,7 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F47">
         <v>1.7</v>
@@ -3354,7 +3357,7 @@
         <v>6.4325</v>
       </c>
       <c r="L47">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="M47">
         <v>4.01377</v>
@@ -3369,19 +3372,19 @@
         <v>5545597</v>
       </c>
       <c r="Q47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3395,7 +3398,7 @@
         <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F48">
         <v>0.328</v>
@@ -3410,7 +3413,7 @@
         <v>1.9125</v>
       </c>
       <c r="L48">
-        <v>0.5265</v>
+        <v>0.398</v>
       </c>
       <c r="M48">
         <v>0.82107</v>
@@ -3425,19 +3428,19 @@
         <v>5545597</v>
       </c>
       <c r="Q48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U48" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3451,7 +3454,7 @@
         <v>46</v>
       </c>
       <c r="E49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F49">
         <v>0.328</v>
@@ -3466,7 +3469,7 @@
         <v>1.9125</v>
       </c>
       <c r="L49">
-        <v>0.5265</v>
+        <v>0.398</v>
       </c>
       <c r="M49">
         <v>0.82107</v>
@@ -3481,19 +3484,19 @@
         <v>5545597</v>
       </c>
       <c r="Q49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U49" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3510,7 +3513,7 @@
         <v>47</v>
       </c>
       <c r="E50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F50">
         <v>0.048</v>
@@ -3525,7 +3528,7 @@
         <v>0.1874</v>
       </c>
       <c r="L50">
-        <v>0.0285</v>
+        <v>0.0345</v>
       </c>
       <c r="M50">
         <v>0.09592000000000001</v>
@@ -3540,19 +3543,19 @@
         <v>5545597</v>
       </c>
       <c r="Q50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3569,7 +3572,7 @@
         <v>47</v>
       </c>
       <c r="E51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F51">
         <v>0.048</v>
@@ -3584,7 +3587,7 @@
         <v>0.1874</v>
       </c>
       <c r="L51">
-        <v>0.0285</v>
+        <v>0.0345</v>
       </c>
       <c r="M51">
         <v>0.09592000000000001</v>
@@ -3599,19 +3602,19 @@
         <v>5545597</v>
       </c>
       <c r="Q51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3628,7 +3631,7 @@
         <v>47</v>
       </c>
       <c r="E52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F52">
         <v>388.5</v>
@@ -3649,7 +3652,7 @@
         <v>58.6206896551724</v>
       </c>
       <c r="L52">
-        <v>355</v>
+        <v>440</v>
       </c>
       <c r="M52">
         <v>4176.52</v>
@@ -3664,19 +3667,19 @@
         <v>5545597</v>
       </c>
       <c r="Q52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3693,7 +3696,7 @@
         <v>47</v>
       </c>
       <c r="E53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F53">
         <v>388.5</v>
@@ -3714,7 +3717,7 @@
         <v>58.6206896551724</v>
       </c>
       <c r="L53">
-        <v>355</v>
+        <v>440</v>
       </c>
       <c r="M53">
         <v>4176.52</v>
@@ -3729,19 +3732,19 @@
         <v>5545597</v>
       </c>
       <c r="Q53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3758,7 +3761,7 @@
         <v>47</v>
       </c>
       <c r="E54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F54">
         <v>388.5</v>
@@ -3779,7 +3782,7 @@
         <v>58.6206896551724</v>
       </c>
       <c r="L54">
-        <v>355</v>
+        <v>440</v>
       </c>
       <c r="M54">
         <v>4176.52</v>
@@ -3794,19 +3797,19 @@
         <v>5545597</v>
       </c>
       <c r="Q54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3823,7 +3826,7 @@
         <v>47</v>
       </c>
       <c r="E55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F55">
         <v>388.5</v>
@@ -3844,7 +3847,7 @@
         <v>58.6206896551724</v>
       </c>
       <c r="L55">
-        <v>355</v>
+        <v>440</v>
       </c>
       <c r="M55">
         <v>4176.52</v>
@@ -3859,19 +3862,19 @@
         <v>5545597</v>
       </c>
       <c r="Q55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3888,13 +3891,13 @@
         <v>47</v>
       </c>
       <c r="E56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F56">
         <v>0.01167</v>
       </c>
       <c r="G56">
-        <v>0.0378417431316106</v>
+        <v>0.0378403586672231</v>
       </c>
       <c r="H56">
         <v>0.22693129342339</v>
@@ -3903,7 +3906,7 @@
         <v>0.16014</v>
       </c>
       <c r="L56">
-        <v>0.00187</v>
+        <v>0.00767</v>
       </c>
       <c r="M56">
         <v>0.08141</v>
@@ -3918,19 +3921,19 @@
         <v>5545597</v>
       </c>
       <c r="Q56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3947,13 +3950,13 @@
         <v>47</v>
       </c>
       <c r="E57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F57">
         <v>0.01167</v>
       </c>
       <c r="G57">
-        <v>0.0378417431316106</v>
+        <v>0.0378403586672231</v>
       </c>
       <c r="H57">
         <v>0.22693129342339</v>
@@ -3962,7 +3965,7 @@
         <v>0.16014</v>
       </c>
       <c r="L57">
-        <v>0.00187</v>
+        <v>0.00767</v>
       </c>
       <c r="M57">
         <v>0.08141</v>
@@ -3977,19 +3980,19 @@
         <v>5545597</v>
       </c>
       <c r="Q57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U57" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -4006,13 +4009,13 @@
         <v>47</v>
       </c>
       <c r="E58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F58">
         <v>0.03755</v>
       </c>
       <c r="G58">
-        <v>0.315340073090332</v>
+        <v>0.315326495199402</v>
       </c>
       <c r="H58">
         <v>2.8946</v>
@@ -4021,7 +4024,7 @@
         <v>1.356</v>
       </c>
       <c r="L58">
-        <v>0.001</v>
+        <v>0.00205</v>
       </c>
       <c r="M58">
         <v>0.68586</v>
@@ -4036,19 +4039,19 @@
         <v>5545597</v>
       </c>
       <c r="Q58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U58" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4065,13 +4068,13 @@
         <v>47</v>
       </c>
       <c r="E59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F59">
         <v>0.03755</v>
       </c>
       <c r="G59">
-        <v>0.315340073090332</v>
+        <v>0.315326495199402</v>
       </c>
       <c r="H59">
         <v>2.8946</v>
@@ -4080,7 +4083,7 @@
         <v>1.356</v>
       </c>
       <c r="L59">
-        <v>0.001</v>
+        <v>0.00205</v>
       </c>
       <c r="M59">
         <v>0.68586</v>
@@ -4095,19 +4098,19 @@
         <v>5545597</v>
       </c>
       <c r="Q59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4121,13 +4124,13 @@
         <v>47</v>
       </c>
       <c r="E60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F60">
         <v>0.1315</v>
       </c>
       <c r="G60">
-        <v>0.411644458590022</v>
+        <v>0.411633344356214</v>
       </c>
       <c r="H60">
         <v>2.9097</v>
@@ -4136,7 +4139,7 @@
         <v>1.5164</v>
       </c>
       <c r="L60">
-        <v>0.0109</v>
+        <v>0.03735</v>
       </c>
       <c r="M60">
         <v>0.7597</v>
@@ -4151,19 +4154,19 @@
         <v>5545597</v>
       </c>
       <c r="Q60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U60" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4177,13 +4180,13 @@
         <v>47</v>
       </c>
       <c r="E61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F61">
         <v>0.1315</v>
       </c>
       <c r="G61">
-        <v>0.411644458590022</v>
+        <v>0.411633344356214</v>
       </c>
       <c r="H61">
         <v>2.9097</v>
@@ -4192,7 +4195,7 @@
         <v>1.5164</v>
       </c>
       <c r="L61">
-        <v>0.0109</v>
+        <v>0.03735</v>
       </c>
       <c r="M61">
         <v>0.7597</v>
@@ -4207,19 +4210,19 @@
         <v>5545597</v>
       </c>
       <c r="Q61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4233,7 +4236,7 @@
         <v>47</v>
       </c>
       <c r="E62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F62">
         <v>1.7</v>
@@ -4248,7 +4251,7 @@
         <v>6.5064</v>
       </c>
       <c r="L62">
-        <v>2.0865</v>
+        <v>1.7</v>
       </c>
       <c r="M62">
         <v>4.00728</v>
@@ -4263,19 +4266,19 @@
         <v>5545597</v>
       </c>
       <c r="Q62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4289,7 +4292,7 @@
         <v>47</v>
       </c>
       <c r="E63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F63">
         <v>1.7</v>
@@ -4304,7 +4307,7 @@
         <v>6.5064</v>
       </c>
       <c r="L63">
-        <v>2.0865</v>
+        <v>1.7</v>
       </c>
       <c r="M63">
         <v>4.00728</v>
@@ -4319,19 +4322,19 @@
         <v>5545597</v>
       </c>
       <c r="Q63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4345,7 +4348,7 @@
         <v>47</v>
       </c>
       <c r="E64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F64">
         <v>0.34</v>
@@ -4360,7 +4363,7 @@
         <v>2.096</v>
       </c>
       <c r="L64">
-        <v>0.5265</v>
+        <v>0.398</v>
       </c>
       <c r="M64">
         <v>1.04824</v>
@@ -4375,19 +4378,19 @@
         <v>5545597</v>
       </c>
       <c r="Q64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U64" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4401,7 +4404,7 @@
         <v>47</v>
       </c>
       <c r="E65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F65">
         <v>0.34</v>
@@ -4416,7 +4419,7 @@
         <v>2.096</v>
       </c>
       <c r="L65">
-        <v>0.5265</v>
+        <v>0.398</v>
       </c>
       <c r="M65">
         <v>1.04824</v>
@@ -4431,19 +4434,19 @@
         <v>5545597</v>
       </c>
       <c r="Q65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S65" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U65" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4460,7 +4463,7 @@
         <v>48</v>
       </c>
       <c r="E66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F66">
         <v>0.245</v>
@@ -4475,7 +4478,7 @@
         <v>0.8</v>
       </c>
       <c r="L66">
-        <v>0.105</v>
+        <v>0.175</v>
       </c>
       <c r="M66">
         <v>0.4165</v>
@@ -4490,19 +4493,19 @@
         <v>5545597</v>
       </c>
       <c r="Q66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T66" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4519,7 +4522,7 @@
         <v>48</v>
       </c>
       <c r="E67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F67">
         <v>0.0405</v>
@@ -4534,7 +4537,7 @@
         <v>0.1455</v>
       </c>
       <c r="L67">
-        <v>0.0245</v>
+        <v>0.0315</v>
       </c>
       <c r="M67">
         <v>0.0804</v>
@@ -4549,19 +4552,19 @@
         <v>5545597</v>
       </c>
       <c r="Q67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U67" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4578,7 +4581,7 @@
         <v>48</v>
       </c>
       <c r="E68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F68">
         <v>0.0405</v>
@@ -4593,7 +4596,7 @@
         <v>0.1455</v>
       </c>
       <c r="L68">
-        <v>0.0245</v>
+        <v>0.0315</v>
       </c>
       <c r="M68">
         <v>0.0804</v>
@@ -4608,19 +4611,19 @@
         <v>5545597</v>
       </c>
       <c r="Q68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T68" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U68" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4637,7 +4640,7 @@
         <v>48</v>
       </c>
       <c r="E69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F69">
         <v>300</v>
@@ -4658,7 +4661,7 @@
         <v>53.3333333333333</v>
       </c>
       <c r="L69">
-        <v>225</v>
+        <v>405</v>
       </c>
       <c r="M69">
         <v>2530</v>
@@ -4673,19 +4676,19 @@
         <v>5545597</v>
       </c>
       <c r="Q69" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R69" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S69" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T69" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -4702,7 +4705,7 @@
         <v>48</v>
       </c>
       <c r="E70" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F70">
         <v>300</v>
@@ -4723,7 +4726,7 @@
         <v>53.3333333333333</v>
       </c>
       <c r="L70">
-        <v>225</v>
+        <v>405</v>
       </c>
       <c r="M70">
         <v>2530</v>
@@ -4738,19 +4741,19 @@
         <v>5545597</v>
       </c>
       <c r="Q70" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R70" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S70" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T70" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U70" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -4767,7 +4770,7 @@
         <v>48</v>
       </c>
       <c r="E71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F71">
         <v>300</v>
@@ -4788,7 +4791,7 @@
         <v>53.3333333333333</v>
       </c>
       <c r="L71">
-        <v>225</v>
+        <v>405</v>
       </c>
       <c r="M71">
         <v>2530</v>
@@ -4803,19 +4806,19 @@
         <v>5545597</v>
       </c>
       <c r="Q71" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R71" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S71" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T71" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U71" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -4832,7 +4835,7 @@
         <v>48</v>
       </c>
       <c r="E72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F72">
         <v>300</v>
@@ -4853,7 +4856,7 @@
         <v>53.3333333333333</v>
       </c>
       <c r="L72">
-        <v>225</v>
+        <v>405</v>
       </c>
       <c r="M72">
         <v>2530</v>
@@ -4868,19 +4871,19 @@
         <v>5545597</v>
       </c>
       <c r="Q72" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T72" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U72" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -4897,13 +4900,13 @@
         <v>48</v>
       </c>
       <c r="E73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F73">
         <v>0.009730000000000001</v>
       </c>
       <c r="G73">
-        <v>0.029152086346316</v>
+        <v>0.029147740422079</v>
       </c>
       <c r="H73">
         <v>0.22693129342339</v>
@@ -4912,7 +4915,7 @@
         <v>0.15106</v>
       </c>
       <c r="L73">
-        <v>0.00219</v>
+        <v>0.00325</v>
       </c>
       <c r="M73">
         <v>0.05037</v>
@@ -4927,19 +4930,19 @@
         <v>5545597</v>
       </c>
       <c r="Q73" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T73" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U73" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -4956,13 +4959,13 @@
         <v>48</v>
       </c>
       <c r="E74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F74">
         <v>0.009730000000000001</v>
       </c>
       <c r="G74">
-        <v>0.029152086346316</v>
+        <v>0.029147740422079</v>
       </c>
       <c r="H74">
         <v>0.22693129342339</v>
@@ -4971,7 +4974,7 @@
         <v>0.15106</v>
       </c>
       <c r="L74">
-        <v>0.00219</v>
+        <v>0.00325</v>
       </c>
       <c r="M74">
         <v>0.05037</v>
@@ -4986,19 +4989,19 @@
         <v>5545597</v>
       </c>
       <c r="Q74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T74" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U74" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -5015,13 +5018,13 @@
         <v>48</v>
       </c>
       <c r="E75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F75">
         <v>0.01845</v>
       </c>
       <c r="G75">
-        <v>0.322140015302237</v>
+        <v>0.322110411637406</v>
       </c>
       <c r="H75">
         <v>2.8946</v>
@@ -5030,7 +5033,7 @@
         <v>1.345</v>
       </c>
       <c r="L75">
-        <v>0.001</v>
+        <v>0.00151</v>
       </c>
       <c r="M75">
         <v>0.7713</v>
@@ -5045,19 +5048,19 @@
         <v>5545597</v>
       </c>
       <c r="Q75" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R75" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S75" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T75" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U75" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -5074,13 +5077,13 @@
         <v>48</v>
       </c>
       <c r="E76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F76">
         <v>0.01845</v>
       </c>
       <c r="G76">
-        <v>0.322140015302237</v>
+        <v>0.322110411637406</v>
       </c>
       <c r="H76">
         <v>2.8946</v>
@@ -5089,7 +5092,7 @@
         <v>1.345</v>
       </c>
       <c r="L76">
-        <v>0.001</v>
+        <v>0.00151</v>
       </c>
       <c r="M76">
         <v>0.7713</v>
@@ -5104,19 +5107,19 @@
         <v>5545597</v>
       </c>
       <c r="Q76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R76" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S76" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T76" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U76" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -5130,13 +5133,13 @@
         <v>48</v>
       </c>
       <c r="E77" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F77">
         <v>0.0973</v>
       </c>
       <c r="G77">
-        <v>0.40045206649006</v>
+        <v>0.400433533432061</v>
       </c>
       <c r="H77">
         <v>2.9097</v>
@@ -5145,7 +5148,7 @@
         <v>1.5055</v>
       </c>
       <c r="L77">
-        <v>0.009769999999999999</v>
+        <v>0.01475</v>
       </c>
       <c r="M77">
         <v>0.838</v>
@@ -5160,19 +5163,19 @@
         <v>5545597</v>
       </c>
       <c r="Q77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R77" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S77" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T77" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U77" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5186,13 +5189,13 @@
         <v>48</v>
       </c>
       <c r="E78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F78">
         <v>0.0973</v>
       </c>
       <c r="G78">
-        <v>0.40045206649006</v>
+        <v>0.400433533432061</v>
       </c>
       <c r="H78">
         <v>2.9097</v>
@@ -5201,7 +5204,7 @@
         <v>1.5055</v>
       </c>
       <c r="L78">
-        <v>0.009769999999999999</v>
+        <v>0.01475</v>
       </c>
       <c r="M78">
         <v>0.838</v>
@@ -5216,19 +5219,19 @@
         <v>5545597</v>
       </c>
       <c r="Q78" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T78" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U78" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5242,7 +5245,7 @@
         <v>48</v>
       </c>
       <c r="E79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F79">
         <v>1.725</v>
@@ -5257,7 +5260,7 @@
         <v>6.687</v>
       </c>
       <c r="L79">
-        <v>2.0265</v>
+        <v>1.615</v>
       </c>
       <c r="M79">
         <v>3.9981</v>
@@ -5272,19 +5275,19 @@
         <v>5545597</v>
       </c>
       <c r="Q79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R79" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S79" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T79" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U79" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5298,7 +5301,7 @@
         <v>48</v>
       </c>
       <c r="E80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F80">
         <v>1.725</v>
@@ -5313,7 +5316,7 @@
         <v>6.687</v>
       </c>
       <c r="L80">
-        <v>2.0265</v>
+        <v>1.615</v>
       </c>
       <c r="M80">
         <v>3.9981</v>
@@ -5328,19 +5331,19 @@
         <v>5545597</v>
       </c>
       <c r="Q80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R80" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S80" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T80" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U80" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -5354,7 +5357,7 @@
         <v>48</v>
       </c>
       <c r="E81" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F81">
         <v>0.3315</v>
@@ -5369,7 +5372,7 @@
         <v>2.08</v>
       </c>
       <c r="L81">
-        <v>0.5145</v>
+        <v>0.375</v>
       </c>
       <c r="M81">
         <v>0.946</v>
@@ -5384,19 +5387,19 @@
         <v>5545597</v>
       </c>
       <c r="Q81" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R81" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S81" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T81" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U81" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -5410,7 +5413,7 @@
         <v>48</v>
       </c>
       <c r="E82" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F82">
         <v>0.3315</v>
@@ -5425,7 +5428,7 @@
         <v>2.08</v>
       </c>
       <c r="L82">
-        <v>0.5145</v>
+        <v>0.375</v>
       </c>
       <c r="M82">
         <v>0.946</v>
@@ -5440,19 +5443,19 @@
         <v>5545597</v>
       </c>
       <c r="Q82" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S82" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T82" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U82" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -5469,7 +5472,7 @@
         <v>49</v>
       </c>
       <c r="E83" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F83">
         <v>0.2225</v>
@@ -5484,7 +5487,7 @@
         <v>0.442</v>
       </c>
       <c r="L83">
-        <v>0.225</v>
+        <v>0.2225</v>
       </c>
       <c r="M83">
         <v>0.35048</v>
@@ -5499,19 +5502,19 @@
         <v>5545597</v>
       </c>
       <c r="Q83" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R83" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S83" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T83" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U83" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -5528,7 +5531,7 @@
         <v>49</v>
       </c>
       <c r="E84" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F84">
         <v>0.038</v>
@@ -5543,7 +5546,7 @@
         <v>0.1522</v>
       </c>
       <c r="L84">
-        <v>0.0315</v>
+        <v>0.034</v>
       </c>
       <c r="M84">
         <v>0.07692</v>
@@ -5558,19 +5561,19 @@
         <v>5545597</v>
       </c>
       <c r="Q84" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R84" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S84" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T84" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U84" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -5587,7 +5590,7 @@
         <v>49</v>
       </c>
       <c r="E85" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F85">
         <v>0.038</v>
@@ -5602,7 +5605,7 @@
         <v>0.1522</v>
       </c>
       <c r="L85">
-        <v>0.0315</v>
+        <v>0.034</v>
       </c>
       <c r="M85">
         <v>0.07692</v>
@@ -5617,19 +5620,19 @@
         <v>5545597</v>
       </c>
       <c r="Q85" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R85" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S85" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T85" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U85" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -5646,7 +5649,7 @@
         <v>49</v>
       </c>
       <c r="E86" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F86">
         <v>255.5</v>
@@ -5667,7 +5670,7 @@
         <v>50</v>
       </c>
       <c r="L86">
-        <v>119.5</v>
+        <v>201.5</v>
       </c>
       <c r="M86">
         <v>2392</v>
@@ -5682,19 +5685,19 @@
         <v>5545597</v>
       </c>
       <c r="Q86" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R86" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S86" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T86" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U86" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -5711,7 +5714,7 @@
         <v>49</v>
       </c>
       <c r="E87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F87">
         <v>255.5</v>
@@ -5732,7 +5735,7 @@
         <v>50</v>
       </c>
       <c r="L87">
-        <v>119.5</v>
+        <v>201.5</v>
       </c>
       <c r="M87">
         <v>2392</v>
@@ -5747,19 +5750,19 @@
         <v>5545597</v>
       </c>
       <c r="Q87" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S87" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T87" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U87" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -5776,7 +5779,7 @@
         <v>49</v>
       </c>
       <c r="E88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F88">
         <v>255.5</v>
@@ -5797,7 +5800,7 @@
         <v>50</v>
       </c>
       <c r="L88">
-        <v>119.5</v>
+        <v>201.5</v>
       </c>
       <c r="M88">
         <v>2392</v>
@@ -5812,19 +5815,19 @@
         <v>5545597</v>
       </c>
       <c r="Q88" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R88" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S88" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T88" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U88" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -5841,7 +5844,7 @@
         <v>49</v>
       </c>
       <c r="E89" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F89">
         <v>255.5</v>
@@ -5862,7 +5865,7 @@
         <v>50</v>
       </c>
       <c r="L89">
-        <v>119.5</v>
+        <v>201.5</v>
       </c>
       <c r="M89">
         <v>2392</v>
@@ -5877,19 +5880,19 @@
         <v>5545597</v>
       </c>
       <c r="Q89" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R89" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S89" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T89" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U89" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -5906,13 +5909,13 @@
         <v>49</v>
       </c>
       <c r="E90" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F90">
         <v>0.01027</v>
       </c>
       <c r="G90">
-        <v>0.0276351273780872</v>
+        <v>0.0276288565768458</v>
       </c>
       <c r="H90">
         <v>0.22550300938835</v>
@@ -5921,7 +5924,7 @@
         <v>0.11957</v>
       </c>
       <c r="L90">
-        <v>0.00248</v>
+        <v>0.00331</v>
       </c>
       <c r="M90">
         <v>0.05318</v>
@@ -5936,19 +5939,19 @@
         <v>5545597</v>
       </c>
       <c r="Q90" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R90" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S90" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T90" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U90" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -5965,13 +5968,13 @@
         <v>49</v>
       </c>
       <c r="E91" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F91">
         <v>0.01027</v>
       </c>
       <c r="G91">
-        <v>0.0276351273780872</v>
+        <v>0.0276288565768458</v>
       </c>
       <c r="H91">
         <v>0.22550300938835</v>
@@ -5980,7 +5983,7 @@
         <v>0.11957</v>
       </c>
       <c r="L91">
-        <v>0.00248</v>
+        <v>0.00331</v>
       </c>
       <c r="M91">
         <v>0.05318</v>
@@ -5995,19 +5998,19 @@
         <v>5545597</v>
       </c>
       <c r="Q91" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R91" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S91" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T91" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U91" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -6024,13 +6027,13 @@
         <v>49</v>
       </c>
       <c r="E92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F92">
         <v>0.0214</v>
       </c>
       <c r="G92">
-        <v>0.285056233537947</v>
+        <v>0.285006761649028</v>
       </c>
       <c r="H92">
         <v>2.8946</v>
@@ -6039,7 +6042,7 @@
         <v>1.222</v>
       </c>
       <c r="L92">
-        <v>0.00117</v>
+        <v>0.00185</v>
       </c>
       <c r="M92">
         <v>0.6405</v>
@@ -6054,19 +6057,19 @@
         <v>5545597</v>
       </c>
       <c r="Q92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R92" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S92" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T92" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U92" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -6083,13 +6086,13 @@
         <v>49</v>
       </c>
       <c r="E93" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F93">
         <v>0.0214</v>
       </c>
       <c r="G93">
-        <v>0.285056233537947</v>
+        <v>0.285006761649028</v>
       </c>
       <c r="H93">
         <v>2.8946</v>
@@ -6098,7 +6101,7 @@
         <v>1.222</v>
       </c>
       <c r="L93">
-        <v>0.00117</v>
+        <v>0.00185</v>
       </c>
       <c r="M93">
         <v>0.6405</v>
@@ -6113,19 +6116,19 @@
         <v>5545597</v>
       </c>
       <c r="Q93" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R93" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S93" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T93" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U93" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -6139,13 +6142,13 @@
         <v>49</v>
       </c>
       <c r="E94" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F94">
         <v>0.0973</v>
       </c>
       <c r="G94">
-        <v>0.359010379660663</v>
+        <v>0.358980435926703</v>
       </c>
       <c r="H94">
         <v>2.9097</v>
@@ -6154,7 +6157,7 @@
         <v>1.404</v>
       </c>
       <c r="L94">
-        <v>0.0109</v>
+        <v>0.012</v>
       </c>
       <c r="M94">
         <v>0.76006</v>
@@ -6169,19 +6172,19 @@
         <v>5545597</v>
       </c>
       <c r="Q94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R94" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T94" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U94" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -6195,13 +6198,13 @@
         <v>49</v>
       </c>
       <c r="E95" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F95">
         <v>0.0973</v>
       </c>
       <c r="G95">
-        <v>0.359010379660663</v>
+        <v>0.358980435926703</v>
       </c>
       <c r="H95">
         <v>2.9097</v>
@@ -6210,7 +6213,7 @@
         <v>1.404</v>
       </c>
       <c r="L95">
-        <v>0.0109</v>
+        <v>0.012</v>
       </c>
       <c r="M95">
         <v>0.76006</v>
@@ -6225,19 +6228,19 @@
         <v>5545597</v>
       </c>
       <c r="Q95" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R95" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S95" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T95" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U95" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -6251,7 +6254,7 @@
         <v>49</v>
       </c>
       <c r="E96" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F96">
         <v>1.63</v>
@@ -6266,7 +6269,7 @@
         <v>6.7156</v>
       </c>
       <c r="L96">
-        <v>1.695</v>
+        <v>1.615</v>
       </c>
       <c r="M96">
         <v>3.9576</v>
@@ -6281,19 +6284,19 @@
         <v>5545597</v>
       </c>
       <c r="Q96" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R96" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S96" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T96" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U96" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -6307,7 +6310,7 @@
         <v>49</v>
       </c>
       <c r="E97" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F97">
         <v>1.63</v>
@@ -6322,7 +6325,7 @@
         <v>6.7156</v>
       </c>
       <c r="L97">
-        <v>1.695</v>
+        <v>1.615</v>
       </c>
       <c r="M97">
         <v>3.9576</v>
@@ -6337,19 +6340,19 @@
         <v>5545597</v>
       </c>
       <c r="Q97" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R97" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S97" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T97" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U97" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -6363,7 +6366,7 @@
         <v>49</v>
       </c>
       <c r="E98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F98">
         <v>0.3245</v>
@@ -6378,7 +6381,7 @@
         <v>1.9</v>
       </c>
       <c r="L98">
-        <v>0.428</v>
+        <v>0.375</v>
       </c>
       <c r="M98">
         <v>0.72864</v>
@@ -6393,19 +6396,19 @@
         <v>5545597</v>
       </c>
       <c r="Q98" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S98" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T98" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U98" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -6419,7 +6422,7 @@
         <v>49</v>
       </c>
       <c r="E99" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F99">
         <v>0.3245</v>
@@ -6434,7 +6437,7 @@
         <v>1.9</v>
       </c>
       <c r="L99">
-        <v>0.428</v>
+        <v>0.375</v>
       </c>
       <c r="M99">
         <v>0.72864</v>
@@ -6449,19 +6452,19 @@
         <v>5545597</v>
       </c>
       <c r="Q99" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T99" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U99" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -6478,7 +6481,7 @@
         <v>50</v>
       </c>
       <c r="E100" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F100">
         <v>0.21</v>
@@ -6493,7 +6496,7 @@
         <v>0.43</v>
       </c>
       <c r="L100">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="M100">
         <v>0.3452</v>
@@ -6508,19 +6511,19 @@
         <v>5545597</v>
       </c>
       <c r="Q100" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R100" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S100" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T100" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U100" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -6537,7 +6540,7 @@
         <v>50</v>
       </c>
       <c r="E101" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F101">
         <v>0.036</v>
@@ -6552,7 +6555,7 @@
         <v>0.1895</v>
       </c>
       <c r="L101">
-        <v>0.0285</v>
+        <v>0.03</v>
       </c>
       <c r="M101">
         <v>0.0886</v>
@@ -6567,19 +6570,19 @@
         <v>5545597</v>
       </c>
       <c r="Q101" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T101" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U101" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -6596,7 +6599,7 @@
         <v>50</v>
       </c>
       <c r="E102" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F102">
         <v>0.036</v>
@@ -6611,7 +6614,7 @@
         <v>0.1895</v>
       </c>
       <c r="L102">
-        <v>0.0285</v>
+        <v>0.03</v>
       </c>
       <c r="M102">
         <v>0.0886</v>
@@ -6626,19 +6629,19 @@
         <v>5545597</v>
       </c>
       <c r="Q102" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R102" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S102" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T102" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U102" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -6655,19 +6658,19 @@
         <v>50</v>
       </c>
       <c r="E103" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F103">
         <v>350</v>
       </c>
       <c r="G103">
-        <v>3674.80409773726</v>
+        <v>2827.33579009988</v>
       </c>
       <c r="H103">
-        <v>64028.2253755495</v>
+        <v>49000</v>
       </c>
       <c r="I103">
-        <v>24750</v>
+        <v>16813.10134</v>
       </c>
       <c r="J103">
         <v>36.3636363636364</v>
@@ -6676,7 +6679,7 @@
         <v>56.3636363636364</v>
       </c>
       <c r="L103">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M103">
         <v>2500</v>
@@ -6691,19 +6694,19 @@
         <v>5545597</v>
       </c>
       <c r="Q103" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R103" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S103" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T103" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U103" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -6720,19 +6723,19 @@
         <v>50</v>
       </c>
       <c r="E104" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F104">
         <v>350</v>
       </c>
       <c r="G104">
-        <v>3674.80409773726</v>
+        <v>2827.33579009988</v>
       </c>
       <c r="H104">
-        <v>64028.2253755495</v>
+        <v>49000</v>
       </c>
       <c r="I104">
-        <v>24750</v>
+        <v>16813.10134</v>
       </c>
       <c r="J104">
         <v>36.3636363636364</v>
@@ -6741,7 +6744,7 @@
         <v>56.3636363636364</v>
       </c>
       <c r="L104">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M104">
         <v>2500</v>
@@ -6756,19 +6759,19 @@
         <v>5545597</v>
       </c>
       <c r="Q104" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R104" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S104" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T104" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U104" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -6785,19 +6788,19 @@
         <v>50</v>
       </c>
       <c r="E105" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F105">
         <v>350</v>
       </c>
       <c r="G105">
-        <v>3674.80409773726</v>
+        <v>2827.33579009988</v>
       </c>
       <c r="H105">
-        <v>64028.2253755495</v>
+        <v>49000</v>
       </c>
       <c r="I105">
-        <v>24750</v>
+        <v>16813.10134</v>
       </c>
       <c r="J105">
         <v>36.3636363636364</v>
@@ -6806,7 +6809,7 @@
         <v>56.3636363636364</v>
       </c>
       <c r="L105">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M105">
         <v>2500</v>
@@ -6821,19 +6824,19 @@
         <v>5545597</v>
       </c>
       <c r="Q105" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R105" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S105" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T105" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U105" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -6850,19 +6853,19 @@
         <v>50</v>
       </c>
       <c r="E106" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F106">
         <v>350</v>
       </c>
       <c r="G106">
-        <v>3674.80409773726</v>
+        <v>2827.33579009988</v>
       </c>
       <c r="H106">
-        <v>64028.2253755495</v>
+        <v>49000</v>
       </c>
       <c r="I106">
-        <v>24750</v>
+        <v>16813.10134</v>
       </c>
       <c r="J106">
         <v>36.3636363636364</v>
@@ -6871,7 +6874,7 @@
         <v>56.3636363636364</v>
       </c>
       <c r="L106">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M106">
         <v>2500</v>
@@ -6886,19 +6889,19 @@
         <v>5545597</v>
       </c>
       <c r="Q106" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R106" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S106" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T106" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U106" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -6915,13 +6918,13 @@
         <v>50</v>
       </c>
       <c r="E107" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F107">
         <v>0.01449</v>
       </c>
       <c r="G107">
-        <v>0.13041174575703</v>
+        <v>0.130405106085128</v>
       </c>
       <c r="H107">
         <v>4.5845137626817</v>
@@ -6930,7 +6933,7 @@
         <v>0.22071</v>
       </c>
       <c r="L107">
-        <v>0.00314</v>
+        <v>0.00384</v>
       </c>
       <c r="M107">
         <v>0.05463</v>
@@ -6945,19 +6948,19 @@
         <v>5545597</v>
       </c>
       <c r="Q107" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R107" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S107" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T107" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U107" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -6974,13 +6977,13 @@
         <v>50</v>
       </c>
       <c r="E108" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F108">
         <v>0.01449</v>
       </c>
       <c r="G108">
-        <v>0.13041174575703</v>
+        <v>0.130405106085128</v>
       </c>
       <c r="H108">
         <v>4.5845137626817</v>
@@ -6989,7 +6992,7 @@
         <v>0.22071</v>
       </c>
       <c r="L108">
-        <v>0.00314</v>
+        <v>0.00384</v>
       </c>
       <c r="M108">
         <v>0.05463</v>
@@ -7004,19 +7007,19 @@
         <v>5545597</v>
       </c>
       <c r="Q108" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R108" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S108" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T108" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U108" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="109" spans="1:21">
@@ -7033,13 +7036,13 @@
         <v>50</v>
       </c>
       <c r="E109" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F109">
         <v>0.032</v>
       </c>
       <c r="G109">
-        <v>0.346752403819175</v>
+        <v>0.346692193125008</v>
       </c>
       <c r="H109">
         <v>2.8946</v>
@@ -7048,7 +7051,7 @@
         <v>1.77</v>
       </c>
       <c r="L109">
-        <v>0.00166</v>
+        <v>0.00222</v>
       </c>
       <c r="M109">
         <v>0.7802</v>
@@ -7063,19 +7066,19 @@
         <v>5545597</v>
       </c>
       <c r="Q109" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R109" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S109" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T109" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U109" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="110" spans="1:21">
@@ -7092,13 +7095,13 @@
         <v>50</v>
       </c>
       <c r="E110" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F110">
         <v>0.032</v>
       </c>
       <c r="G110">
-        <v>0.346752403819175</v>
+        <v>0.346692193125008</v>
       </c>
       <c r="H110">
         <v>2.8946</v>
@@ -7107,7 +7110,7 @@
         <v>1.77</v>
       </c>
       <c r="L110">
-        <v>0.00166</v>
+        <v>0.00222</v>
       </c>
       <c r="M110">
         <v>0.7802</v>
@@ -7122,19 +7125,19 @@
         <v>5545597</v>
       </c>
       <c r="Q110" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R110" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S110" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T110" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U110" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -7148,13 +7151,13 @@
         <v>50</v>
       </c>
       <c r="E111" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F111">
         <v>0.14</v>
       </c>
       <c r="G111">
-        <v>0.67417276400579</v>
+        <v>0.674141186977251</v>
       </c>
       <c r="H111">
         <v>12.104</v>
@@ -7163,7 +7166,7 @@
         <v>2.27655</v>
       </c>
       <c r="L111">
-        <v>0.0109</v>
+        <v>0.04</v>
       </c>
       <c r="M111">
         <v>1.05525</v>
@@ -7178,19 +7181,19 @@
         <v>5545597</v>
       </c>
       <c r="Q111" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R111" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S111" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T111" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U111" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -7204,13 +7207,13 @@
         <v>50</v>
       </c>
       <c r="E112" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F112">
         <v>0.14</v>
       </c>
       <c r="G112">
-        <v>0.67417276400579</v>
+        <v>0.674141186977251</v>
       </c>
       <c r="H112">
         <v>12.104</v>
@@ -7219,7 +7222,7 @@
         <v>2.27655</v>
       </c>
       <c r="L112">
-        <v>0.0109</v>
+        <v>0.04</v>
       </c>
       <c r="M112">
         <v>1.05525</v>
@@ -7234,19 +7237,19 @@
         <v>5545597</v>
       </c>
       <c r="Q112" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R112" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S112" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T112" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U112" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="113" spans="1:21">
@@ -7260,7 +7263,7 @@
         <v>50</v>
       </c>
       <c r="E113" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F113">
         <v>1.75</v>
@@ -7275,7 +7278,7 @@
         <v>6.9425</v>
       </c>
       <c r="L113">
-        <v>1.695</v>
+        <v>1.58</v>
       </c>
       <c r="M113">
         <v>3.99405</v>
@@ -7290,19 +7293,19 @@
         <v>5545597</v>
       </c>
       <c r="Q113" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R113" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S113" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T113" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U113" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="114" spans="1:21">
@@ -7316,7 +7319,7 @@
         <v>50</v>
       </c>
       <c r="E114" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F114">
         <v>1.75</v>
@@ -7331,7 +7334,7 @@
         <v>6.9425</v>
       </c>
       <c r="L114">
-        <v>1.695</v>
+        <v>1.58</v>
       </c>
       <c r="M114">
         <v>3.99405</v>
@@ -7346,19 +7349,19 @@
         <v>5545597</v>
       </c>
       <c r="Q114" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R114" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S114" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T114" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U114" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -7372,7 +7375,7 @@
         <v>50</v>
       </c>
       <c r="E115" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F115">
         <v>0.294</v>
@@ -7387,7 +7390,7 @@
         <v>1.9375</v>
       </c>
       <c r="L115">
-        <v>0.417</v>
+        <v>0.35</v>
       </c>
       <c r="M115">
         <v>0.7159</v>
@@ -7402,19 +7405,19 @@
         <v>5545597</v>
       </c>
       <c r="Q115" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R115" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S115" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T115" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U115" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="116" spans="1:21">
@@ -7428,7 +7431,7 @@
         <v>50</v>
       </c>
       <c r="E116" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F116">
         <v>0.294</v>
@@ -7443,7 +7446,7 @@
         <v>1.9375</v>
       </c>
       <c r="L116">
-        <v>0.417</v>
+        <v>0.35</v>
       </c>
       <c r="M116">
         <v>0.7159</v>
@@ -7458,19 +7461,19 @@
         <v>5545597</v>
       </c>
       <c r="Q116" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R116" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S116" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T116" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U116" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="117" spans="1:21">
@@ -7487,7 +7490,7 @@
         <v>51</v>
       </c>
       <c r="E117" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F117">
         <v>0.2</v>
@@ -7502,7 +7505,7 @@
         <v>0.4165</v>
       </c>
       <c r="L117">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="M117">
         <v>0.3187</v>
@@ -7517,19 +7520,19 @@
         <v>5545597</v>
       </c>
       <c r="Q117" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R117" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T117" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U117" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -7546,7 +7549,7 @@
         <v>51</v>
       </c>
       <c r="E118" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F118">
         <v>0.034</v>
@@ -7561,7 +7564,7 @@
         <v>0.179</v>
       </c>
       <c r="L118">
-        <v>0.017</v>
+        <v>0.026</v>
       </c>
       <c r="M118">
         <v>0.075</v>
@@ -7576,19 +7579,19 @@
         <v>5545597</v>
       </c>
       <c r="Q118" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R118" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S118" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U118" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="119" spans="1:21">
@@ -7605,7 +7608,7 @@
         <v>51</v>
       </c>
       <c r="E119" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F119">
         <v>0.034</v>
@@ -7620,7 +7623,7 @@
         <v>0.179</v>
       </c>
       <c r="L119">
-        <v>0.017</v>
+        <v>0.026</v>
       </c>
       <c r="M119">
         <v>0.075</v>
@@ -7635,19 +7638,19 @@
         <v>5545597</v>
       </c>
       <c r="Q119" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R119" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S119" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T119" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U119" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="120" spans="1:21">
@@ -7664,19 +7667,19 @@
         <v>51</v>
       </c>
       <c r="E120" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F120">
         <v>355</v>
       </c>
       <c r="G120">
-        <v>3828.00450751099</v>
+        <v>2895.78936910987</v>
       </c>
       <c r="H120">
-        <v>64028.2253755495</v>
+        <v>49000</v>
       </c>
       <c r="I120">
-        <v>28000</v>
+        <v>17417.46846</v>
       </c>
       <c r="J120">
         <v>38</v>
@@ -7685,7 +7688,7 @@
         <v>56</v>
       </c>
       <c r="L120">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="M120">
         <v>2500</v>
@@ -7700,19 +7703,19 @@
         <v>5545597</v>
       </c>
       <c r="Q120" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R120" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S120" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T120" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U120" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="121" spans="1:21">
@@ -7729,19 +7732,19 @@
         <v>51</v>
       </c>
       <c r="E121" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F121">
         <v>355</v>
       </c>
       <c r="G121">
-        <v>3828.00450751099</v>
+        <v>2895.78936910987</v>
       </c>
       <c r="H121">
-        <v>64028.2253755495</v>
+        <v>49000</v>
       </c>
       <c r="I121">
-        <v>28000</v>
+        <v>17417.46846</v>
       </c>
       <c r="J121">
         <v>38</v>
@@ -7750,7 +7753,7 @@
         <v>56</v>
       </c>
       <c r="L121">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="M121">
         <v>2500</v>
@@ -7765,19 +7768,19 @@
         <v>5545597</v>
       </c>
       <c r="Q121" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R121" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S121" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T121" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U121" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="122" spans="1:21">
@@ -7794,19 +7797,19 @@
         <v>51</v>
       </c>
       <c r="E122" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F122">
         <v>355</v>
       </c>
       <c r="G122">
-        <v>3828.00450751099</v>
+        <v>2895.78936910987</v>
       </c>
       <c r="H122">
-        <v>64028.2253755495</v>
+        <v>49000</v>
       </c>
       <c r="I122">
-        <v>28000</v>
+        <v>17417.46846</v>
       </c>
       <c r="J122">
         <v>38</v>
@@ -7815,7 +7818,7 @@
         <v>56</v>
       </c>
       <c r="L122">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="M122">
         <v>2500</v>
@@ -7830,19 +7833,19 @@
         <v>5545597</v>
       </c>
       <c r="Q122" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R122" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S122" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T122" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U122" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="123" spans="1:21">
@@ -7859,19 +7862,19 @@
         <v>51</v>
       </c>
       <c r="E123" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F123">
         <v>355</v>
       </c>
       <c r="G123">
-        <v>3828.00450751099</v>
+        <v>2895.78936910987</v>
       </c>
       <c r="H123">
-        <v>64028.2253755495</v>
+        <v>49000</v>
       </c>
       <c r="I123">
-        <v>28000</v>
+        <v>17417.46846</v>
       </c>
       <c r="J123">
         <v>38</v>
@@ -7880,7 +7883,7 @@
         <v>56</v>
       </c>
       <c r="L123">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="M123">
         <v>2500</v>
@@ -7895,19 +7898,19 @@
         <v>5545597</v>
       </c>
       <c r="Q123" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R123" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S123" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T123" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U123" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="124" spans="1:21">
@@ -7924,13 +7927,13 @@
         <v>51</v>
       </c>
       <c r="E124" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F124">
         <v>0.01503</v>
       </c>
       <c r="G124">
-        <v>0.150376779930113</v>
+        <v>0.150368919530666</v>
       </c>
       <c r="H124">
         <v>4.5845137626817</v>
@@ -7939,7 +7942,7 @@
         <v>0.40735</v>
       </c>
       <c r="L124">
-        <v>0.0037</v>
+        <v>0.00458</v>
       </c>
       <c r="M124">
         <v>0.05768</v>
@@ -7954,19 +7957,19 @@
         <v>5545597</v>
       </c>
       <c r="Q124" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R124" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S124" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T124" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U124" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="125" spans="1:21">
@@ -7983,13 +7986,13 @@
         <v>51</v>
       </c>
       <c r="E125" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F125">
         <v>0.01503</v>
       </c>
       <c r="G125">
-        <v>0.150376779930113</v>
+        <v>0.150368919530666</v>
       </c>
       <c r="H125">
         <v>4.5845137626817</v>
@@ -7998,7 +8001,7 @@
         <v>0.40735</v>
       </c>
       <c r="L125">
-        <v>0.0037</v>
+        <v>0.00458</v>
       </c>
       <c r="M125">
         <v>0.05768</v>
@@ -8013,19 +8016,19 @@
         <v>5545597</v>
       </c>
       <c r="Q125" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R125" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S125" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T125" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U125" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="126" spans="1:21">
@@ -8042,13 +8045,13 @@
         <v>51</v>
       </c>
       <c r="E126" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F126">
         <v>0.0475</v>
       </c>
       <c r="G126">
-        <v>0.267698930547941</v>
+        <v>0.267602431454725</v>
       </c>
       <c r="H126">
         <v>1.93</v>
@@ -8057,7 +8060,7 @@
         <v>1.21</v>
       </c>
       <c r="L126">
-        <v>0.00178</v>
+        <v>0.00222</v>
       </c>
       <c r="M126">
         <v>0.584</v>
@@ -8072,19 +8075,19 @@
         <v>5545597</v>
       </c>
       <c r="Q126" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R126" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S126" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T126" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U126" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="127" spans="1:21">
@@ -8101,13 +8104,13 @@
         <v>51</v>
       </c>
       <c r="E127" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F127">
         <v>0.0475</v>
       </c>
       <c r="G127">
-        <v>0.267698930547941</v>
+        <v>0.267602431454725</v>
       </c>
       <c r="H127">
         <v>1.93</v>
@@ -8116,7 +8119,7 @@
         <v>1.21</v>
       </c>
       <c r="L127">
-        <v>0.00178</v>
+        <v>0.00222</v>
       </c>
       <c r="M127">
         <v>0.584</v>
@@ -8131,19 +8134,19 @@
         <v>5545597</v>
       </c>
       <c r="Q127" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R127" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S127" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T127" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U127" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="128" spans="1:21">
@@ -8157,13 +8160,13 @@
         <v>51</v>
       </c>
       <c r="E128" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F128">
         <v>0.17</v>
       </c>
       <c r="G128">
-        <v>0.618326665965219</v>
+        <v>0.618294033383319</v>
       </c>
       <c r="H128">
         <v>12.104</v>
@@ -8172,7 +8175,7 @@
         <v>1.99</v>
       </c>
       <c r="L128">
-        <v>0.012</v>
+        <v>0.035</v>
       </c>
       <c r="M128">
         <v>0.82</v>
@@ -8187,19 +8190,19 @@
         <v>5545597</v>
       </c>
       <c r="Q128" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R128" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S128" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T128" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U128" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="129" spans="1:21">
@@ -8213,13 +8216,13 @@
         <v>51</v>
       </c>
       <c r="E129" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F129">
         <v>0.17</v>
       </c>
       <c r="G129">
-        <v>0.618326665965219</v>
+        <v>0.618294033383319</v>
       </c>
       <c r="H129">
         <v>12.104</v>
@@ -8228,7 +8231,7 @@
         <v>1.99</v>
       </c>
       <c r="L129">
-        <v>0.012</v>
+        <v>0.035</v>
       </c>
       <c r="M129">
         <v>0.82</v>
@@ -8243,19 +8246,19 @@
         <v>5545597</v>
       </c>
       <c r="Q129" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R129" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S129" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T129" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U129" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="130" spans="1:21">
@@ -8269,7 +8272,7 @@
         <v>51</v>
       </c>
       <c r="E130" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F130">
         <v>1.695</v>
@@ -8299,19 +8302,19 @@
         <v>5545597</v>
       </c>
       <c r="Q130" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R130" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S130" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T130" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U130" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="131" spans="1:21">
@@ -8325,7 +8328,7 @@
         <v>51</v>
       </c>
       <c r="E131" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F131">
         <v>1.695</v>
@@ -8355,19 +8358,19 @@
         <v>5545597</v>
       </c>
       <c r="Q131" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R131" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S131" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T131" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U131" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="132" spans="1:21">
@@ -8381,7 +8384,7 @@
         <v>51</v>
       </c>
       <c r="E132" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F132">
         <v>0.278</v>
@@ -8411,19 +8414,19 @@
         <v>5545597</v>
       </c>
       <c r="Q132" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R132" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S132" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T132" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U132" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="133" spans="1:21">
@@ -8437,7 +8440,7 @@
         <v>51</v>
       </c>
       <c r="E133" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F133">
         <v>0.278</v>
@@ -8467,19 +8470,19 @@
         <v>5545597</v>
       </c>
       <c r="Q133" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R133" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S133" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T133" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U133" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="134" spans="1:21">
@@ -8496,7 +8499,7 @@
         <v>52</v>
       </c>
       <c r="E134" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F134">
         <v>0.2225</v>
@@ -8526,19 +8529,19 @@
         <v>5545597</v>
       </c>
       <c r="Q134" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R134" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S134" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T134" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U134" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="135" spans="1:21">
@@ -8555,7 +8558,7 @@
         <v>52</v>
       </c>
       <c r="E135" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F135">
         <v>0.032</v>
@@ -8570,7 +8573,7 @@
         <v>0.26875</v>
       </c>
       <c r="L135">
-        <v>0.0235</v>
+        <v>0.027</v>
       </c>
       <c r="M135">
         <v>0.08065</v>
@@ -8585,19 +8588,19 @@
         <v>5545597</v>
       </c>
       <c r="Q135" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R135" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S135" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T135" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U135" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="136" spans="1:21">
@@ -8614,7 +8617,7 @@
         <v>52</v>
       </c>
       <c r="E136" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F136">
         <v>0.032</v>
@@ -8629,7 +8632,7 @@
         <v>0.26875</v>
       </c>
       <c r="L136">
-        <v>0.0235</v>
+        <v>0.027</v>
       </c>
       <c r="M136">
         <v>0.08065</v>
@@ -8644,19 +8647,19 @@
         <v>5545597</v>
       </c>
       <c r="Q136" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R136" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S136" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T136" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U136" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="137" spans="1:21">
@@ -8673,16 +8676,16 @@
         <v>52</v>
       </c>
       <c r="E137" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F137">
         <v>430</v>
       </c>
       <c r="G137">
-        <v>2621.9605639011</v>
+        <v>1586.16596567764</v>
       </c>
       <c r="H137">
-        <v>64028.2253755495</v>
+        <v>17417.4684554936</v>
       </c>
       <c r="I137">
         <v>6900</v>
@@ -8694,7 +8697,7 @@
         <v>62.2222222222222</v>
       </c>
       <c r="L137">
-        <v>385</v>
+        <v>510</v>
       </c>
       <c r="M137">
         <v>2455</v>
@@ -8709,19 +8712,19 @@
         <v>5545597</v>
       </c>
       <c r="Q137" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R137" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S137" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T137" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U137" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="138" spans="1:21">
@@ -8738,16 +8741,16 @@
         <v>52</v>
       </c>
       <c r="E138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F138">
         <v>430</v>
       </c>
       <c r="G138">
-        <v>2621.9605639011</v>
+        <v>1586.16596567764</v>
       </c>
       <c r="H138">
-        <v>64028.2253755495</v>
+        <v>17417.4684554936</v>
       </c>
       <c r="I138">
         <v>6900</v>
@@ -8759,7 +8762,7 @@
         <v>62.2222222222222</v>
       </c>
       <c r="L138">
-        <v>385</v>
+        <v>510</v>
       </c>
       <c r="M138">
         <v>2455</v>
@@ -8774,19 +8777,19 @@
         <v>5545597</v>
       </c>
       <c r="Q138" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S138" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T138" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U138" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="139" spans="1:21">
@@ -8803,16 +8806,16 @@
         <v>52</v>
       </c>
       <c r="E139" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F139">
         <v>430</v>
       </c>
       <c r="G139">
-        <v>2621.9605639011</v>
+        <v>1586.16596567764</v>
       </c>
       <c r="H139">
-        <v>64028.2253755495</v>
+        <v>17417.4684554936</v>
       </c>
       <c r="I139">
         <v>6900</v>
@@ -8824,7 +8827,7 @@
         <v>62.2222222222222</v>
       </c>
       <c r="L139">
-        <v>385</v>
+        <v>510</v>
       </c>
       <c r="M139">
         <v>2455</v>
@@ -8839,19 +8842,19 @@
         <v>5545597</v>
       </c>
       <c r="Q139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R139" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S139" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T139" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U139" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="140" spans="1:21">
@@ -8868,16 +8871,16 @@
         <v>52</v>
       </c>
       <c r="E140" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F140">
         <v>430</v>
       </c>
       <c r="G140">
-        <v>2621.9605639011</v>
+        <v>1586.16596567764</v>
       </c>
       <c r="H140">
-        <v>64028.2253755495</v>
+        <v>17417.4684554936</v>
       </c>
       <c r="I140">
         <v>6900</v>
@@ -8889,7 +8892,7 @@
         <v>62.2222222222222</v>
       </c>
       <c r="L140">
-        <v>385</v>
+        <v>510</v>
       </c>
       <c r="M140">
         <v>2455</v>
@@ -8904,19 +8907,19 @@
         <v>5545597</v>
       </c>
       <c r="Q140" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R140" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S140" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T140" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U140" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="141" spans="1:21">
@@ -8933,13 +8936,13 @@
         <v>52</v>
       </c>
       <c r="E141" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F141">
         <v>0.01887</v>
       </c>
       <c r="G141">
-        <v>0.266749450112337</v>
+        <v>0.266742719914242</v>
       </c>
       <c r="H141">
         <v>4.5845137626817</v>
@@ -8948,7 +8951,7 @@
         <v>2.64442</v>
       </c>
       <c r="L141">
-        <v>0.00388</v>
+        <v>0.01399</v>
       </c>
       <c r="M141">
         <v>0.06795</v>
@@ -8963,19 +8966,19 @@
         <v>5545597</v>
       </c>
       <c r="Q141" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R141" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S141" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T141" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U141" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="142" spans="1:21">
@@ -8992,13 +8995,13 @@
         <v>52</v>
       </c>
       <c r="E142" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F142">
         <v>0.01887</v>
       </c>
       <c r="G142">
-        <v>0.266749450112337</v>
+        <v>0.266742719914242</v>
       </c>
       <c r="H142">
         <v>4.5845137626817</v>
@@ -9007,7 +9010,7 @@
         <v>2.64442</v>
       </c>
       <c r="L142">
-        <v>0.00388</v>
+        <v>0.01399</v>
       </c>
       <c r="M142">
         <v>0.06795</v>
@@ -9022,19 +9025,19 @@
         <v>5545597</v>
       </c>
       <c r="Q142" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R142" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S142" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T142" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U142" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="143" spans="1:21">
@@ -9051,13 +9054,13 @@
         <v>52</v>
       </c>
       <c r="E143" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F143">
         <v>0.055</v>
       </c>
       <c r="G143">
-        <v>0.245007797350226</v>
+        <v>0.244902373365318</v>
       </c>
       <c r="H143">
         <v>1.93</v>
@@ -9066,7 +9069,7 @@
         <v>0.9107499999999999</v>
       </c>
       <c r="L143">
-        <v>0.00276</v>
+        <v>0.00379</v>
       </c>
       <c r="M143">
         <v>0.5322</v>
@@ -9081,19 +9084,19 @@
         <v>5545597</v>
       </c>
       <c r="Q143" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R143" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S143" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T143" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U143" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="144" spans="1:21">
@@ -9110,13 +9113,13 @@
         <v>52</v>
       </c>
       <c r="E144" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F144">
         <v>0.055</v>
       </c>
       <c r="G144">
-        <v>0.245007797350226</v>
+        <v>0.244902373365318</v>
       </c>
       <c r="H144">
         <v>1.93</v>
@@ -9125,7 +9128,7 @@
         <v>0.9107499999999999</v>
       </c>
       <c r="L144">
-        <v>0.00276</v>
+        <v>0.00379</v>
       </c>
       <c r="M144">
         <v>0.5322</v>
@@ -9140,19 +9143,19 @@
         <v>5545597</v>
       </c>
       <c r="Q144" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R144" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S144" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T144" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U144" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="145" spans="1:21">
@@ -9166,13 +9169,13 @@
         <v>52</v>
       </c>
       <c r="E145" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F145">
         <v>0.17</v>
       </c>
       <c r="G145">
-        <v>0.884649409379937</v>
+        <v>0.884625140246409</v>
       </c>
       <c r="H145">
         <v>12.104</v>
@@ -9181,7 +9184,7 @@
         <v>4.5925</v>
       </c>
       <c r="L145">
-        <v>0.0315</v>
+        <v>0.049</v>
       </c>
       <c r="M145">
         <v>0.8137</v>
@@ -9196,19 +9199,19 @@
         <v>5545597</v>
       </c>
       <c r="Q145" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R145" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S145" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T145" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U145" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="146" spans="1:21">
@@ -9222,13 +9225,13 @@
         <v>52</v>
       </c>
       <c r="E146" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F146">
         <v>0.17</v>
       </c>
       <c r="G146">
-        <v>0.884649409379937</v>
+        <v>0.884625140246409</v>
       </c>
       <c r="H146">
         <v>12.104</v>
@@ -9237,7 +9240,7 @@
         <v>4.5925</v>
       </c>
       <c r="L146">
-        <v>0.0315</v>
+        <v>0.049</v>
       </c>
       <c r="M146">
         <v>0.8137</v>
@@ -9252,19 +9255,19 @@
         <v>5545597</v>
       </c>
       <c r="Q146" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R146" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S146" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T146" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U146" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="147" spans="1:21">
@@ -9278,7 +9281,7 @@
         <v>52</v>
       </c>
       <c r="E147" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F147">
         <v>1.55</v>
@@ -9293,7 +9296,7 @@
         <v>9.317500000000001</v>
       </c>
       <c r="L147">
-        <v>1.695</v>
+        <v>1.81</v>
       </c>
       <c r="M147">
         <v>2.3135</v>
@@ -9308,19 +9311,19 @@
         <v>5545597</v>
       </c>
       <c r="Q147" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R147" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S147" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T147" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U147" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="148" spans="1:21">
@@ -9334,7 +9337,7 @@
         <v>52</v>
       </c>
       <c r="E148" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F148">
         <v>1.55</v>
@@ -9349,7 +9352,7 @@
         <v>9.317500000000001</v>
       </c>
       <c r="L148">
-        <v>1.695</v>
+        <v>1.81</v>
       </c>
       <c r="M148">
         <v>2.3135</v>
@@ -9364,19 +9367,19 @@
         <v>5545597</v>
       </c>
       <c r="Q148" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R148" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S148" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T148" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U148" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="149" spans="1:21">
@@ -9390,7 +9393,7 @@
         <v>52</v>
       </c>
       <c r="E149" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F149">
         <v>0.26</v>
@@ -9405,7 +9408,7 @@
         <v>1.105</v>
       </c>
       <c r="L149">
-        <v>0.351</v>
+        <v>0.352</v>
       </c>
       <c r="M149">
         <v>0.4836</v>
@@ -9420,19 +9423,19 @@
         <v>5545597</v>
       </c>
       <c r="Q149" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R149" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S149" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T149" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U149" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="150" spans="1:21">
@@ -9446,7 +9449,7 @@
         <v>52</v>
       </c>
       <c r="E150" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F150">
         <v>0.26</v>
@@ -9461,7 +9464,7 @@
         <v>1.105</v>
       </c>
       <c r="L150">
-        <v>0.351</v>
+        <v>0.352</v>
       </c>
       <c r="M150">
         <v>0.4836</v>
@@ -9476,19 +9479,19 @@
         <v>5545597</v>
       </c>
       <c r="Q150" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R150" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S150" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T150" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U150" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="151" spans="1:21">
@@ -9505,7 +9508,7 @@
         <v>53</v>
       </c>
       <c r="E151" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F151">
         <v>0.031</v>
@@ -9520,7 +9523,7 @@
         <v>0.2272</v>
       </c>
       <c r="L151">
-        <v>0.044</v>
+        <v>0.027</v>
       </c>
       <c r="M151">
         <v>0.07235999999999999</v>
@@ -9535,19 +9538,19 @@
         <v>5545597</v>
       </c>
       <c r="Q151" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R151" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S151" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T151" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U151" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="152" spans="1:21">
@@ -9564,7 +9567,7 @@
         <v>53</v>
       </c>
       <c r="E152" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F152">
         <v>0.031</v>
@@ -9579,7 +9582,7 @@
         <v>0.2272</v>
       </c>
       <c r="L152">
-        <v>0.044</v>
+        <v>0.027</v>
       </c>
       <c r="M152">
         <v>0.07235999999999999</v>
@@ -9594,19 +9597,19 @@
         <v>5545597</v>
       </c>
       <c r="Q152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R152" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S152" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T152" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U152" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="153" spans="1:21">
@@ -9623,16 +9626,16 @@
         <v>53</v>
       </c>
       <c r="E153" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F153">
         <v>490</v>
       </c>
       <c r="G153">
-        <v>2861.07679465594</v>
+        <v>1751.28734417842</v>
       </c>
       <c r="H153">
-        <v>64028.2253755495</v>
+        <v>17417.4684554936</v>
       </c>
       <c r="I153">
         <v>8520</v>
@@ -9644,10 +9647,10 @@
         <v>66.6666666666667</v>
       </c>
       <c r="L153">
-        <v>960</v>
+        <v>1500</v>
       </c>
       <c r="M153">
-        <v>2704.8</v>
+        <v>2704.928</v>
       </c>
       <c r="N153">
         <v>3770</v>
@@ -9659,19 +9662,19 @@
         <v>5545597</v>
       </c>
       <c r="Q153" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R153" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S153" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T153" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U153" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="154" spans="1:21">
@@ -9688,16 +9691,16 @@
         <v>53</v>
       </c>
       <c r="E154" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F154">
         <v>490</v>
       </c>
       <c r="G154">
-        <v>2861.07679465594</v>
+        <v>1751.28734417842</v>
       </c>
       <c r="H154">
-        <v>64028.2253755495</v>
+        <v>17417.4684554936</v>
       </c>
       <c r="I154">
         <v>8520</v>
@@ -9709,10 +9712,10 @@
         <v>66.6666666666667</v>
       </c>
       <c r="L154">
-        <v>960</v>
+        <v>1500</v>
       </c>
       <c r="M154">
-        <v>2704.8</v>
+        <v>2704.928</v>
       </c>
       <c r="N154">
         <v>3770</v>
@@ -9724,19 +9727,19 @@
         <v>5545597</v>
       </c>
       <c r="Q154" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R154" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S154" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T154" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U154" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="155" spans="1:21">
@@ -9753,16 +9756,16 @@
         <v>53</v>
       </c>
       <c r="E155" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F155">
         <v>490</v>
       </c>
       <c r="G155">
-        <v>2861.07679465594</v>
+        <v>1751.28734417842</v>
       </c>
       <c r="H155">
-        <v>64028.2253755495</v>
+        <v>17417.4684554936</v>
       </c>
       <c r="I155">
         <v>8520</v>
@@ -9774,10 +9777,10 @@
         <v>66.6666666666667</v>
       </c>
       <c r="L155">
-        <v>960</v>
+        <v>1500</v>
       </c>
       <c r="M155">
-        <v>2704.8</v>
+        <v>2704.928</v>
       </c>
       <c r="N155">
         <v>3770</v>
@@ -9789,19 +9792,19 @@
         <v>5545597</v>
       </c>
       <c r="Q155" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R155" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S155" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T155" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U155" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="156" spans="1:21">
@@ -9818,16 +9821,16 @@
         <v>53</v>
       </c>
       <c r="E156" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F156">
         <v>490</v>
       </c>
       <c r="G156">
-        <v>2861.07679465594</v>
+        <v>1751.28734417842</v>
       </c>
       <c r="H156">
-        <v>64028.2253755495</v>
+        <v>17417.4684554936</v>
       </c>
       <c r="I156">
         <v>8520</v>
@@ -9839,10 +9842,10 @@
         <v>66.6666666666667</v>
       </c>
       <c r="L156">
-        <v>960</v>
+        <v>1500</v>
       </c>
       <c r="M156">
-        <v>2704.8</v>
+        <v>2704.928</v>
       </c>
       <c r="N156">
         <v>3770</v>
@@ -9854,19 +9857,19 @@
         <v>5545597</v>
       </c>
       <c r="Q156" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R156" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S156" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T156" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U156" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="157" spans="1:21">
@@ -9883,13 +9886,13 @@
         <v>53</v>
       </c>
       <c r="E157" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F157">
         <v>0.02042</v>
       </c>
       <c r="G157">
-        <v>0.312874193461021</v>
+        <v>0.312871668305868</v>
       </c>
       <c r="H157">
         <v>4.5845137626817</v>
@@ -9898,7 +9901,7 @@
         <v>3.21063</v>
       </c>
       <c r="L157">
-        <v>0.00458</v>
+        <v>0.0064</v>
       </c>
       <c r="M157">
         <v>0.07171</v>
@@ -9913,19 +9916,19 @@
         <v>5545597</v>
       </c>
       <c r="Q157" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R157" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S157" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T157" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U157" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="158" spans="1:21">
@@ -9942,13 +9945,13 @@
         <v>53</v>
       </c>
       <c r="E158" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F158">
         <v>0.02042</v>
       </c>
       <c r="G158">
-        <v>0.312874193461021</v>
+        <v>0.312871668305868</v>
       </c>
       <c r="H158">
         <v>4.5845137626817</v>
@@ -9957,7 +9960,7 @@
         <v>3.21063</v>
       </c>
       <c r="L158">
-        <v>0.00458</v>
+        <v>0.0064</v>
       </c>
       <c r="M158">
         <v>0.07171</v>
@@ -9972,19 +9975,19 @@
         <v>5545597</v>
       </c>
       <c r="Q158" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R158" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S158" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T158" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U158" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="159" spans="1:21">
@@ -10001,13 +10004,13 @@
         <v>53</v>
       </c>
       <c r="E159" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F159">
         <v>0.0455</v>
       </c>
       <c r="G159">
-        <v>0.254757789358395</v>
+        <v>0.254595274400764</v>
       </c>
       <c r="H159">
         <v>1.93</v>
@@ -10016,7 +10019,7 @@
         <v>1.318</v>
       </c>
       <c r="L159">
-        <v>0.00481</v>
+        <v>0.005</v>
       </c>
       <c r="M159">
         <v>0.54432</v>
@@ -10031,19 +10034,19 @@
         <v>5545597</v>
       </c>
       <c r="Q159" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R159" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S159" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T159" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U159" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="160" spans="1:21">
@@ -10060,13 +10063,13 @@
         <v>53</v>
       </c>
       <c r="E160" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F160">
         <v>0.0455</v>
       </c>
       <c r="G160">
-        <v>0.254757789358395</v>
+        <v>0.254595274400764</v>
       </c>
       <c r="H160">
         <v>1.93</v>
@@ -10075,7 +10078,7 @@
         <v>1.318</v>
       </c>
       <c r="L160">
-        <v>0.00481</v>
+        <v>0.005</v>
       </c>
       <c r="M160">
         <v>0.54432</v>
@@ -10090,19 +10093,19 @@
         <v>5545597</v>
       </c>
       <c r="Q160" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R160" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S160" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T160" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U160" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="161" spans="1:21">
@@ -10116,13 +10119,13 @@
         <v>53</v>
       </c>
       <c r="E161" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F161">
         <v>0.17</v>
       </c>
       <c r="G161">
-        <v>0.997535191212257</v>
+        <v>0.997520316138694</v>
       </c>
       <c r="H161">
         <v>12.104</v>
@@ -10131,7 +10134,7 @@
         <v>7.186</v>
       </c>
       <c r="L161">
-        <v>0.034</v>
+        <v>0.047</v>
       </c>
       <c r="M161">
         <v>0.95096</v>
@@ -10146,19 +10149,19 @@
         <v>5545597</v>
       </c>
       <c r="Q161" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R161" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S161" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T161" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U161" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="162" spans="1:21">
@@ -10172,13 +10175,13 @@
         <v>53</v>
       </c>
       <c r="E162" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F162">
         <v>0.17</v>
       </c>
       <c r="G162">
-        <v>0.997535191212257</v>
+        <v>0.997520316138694</v>
       </c>
       <c r="H162">
         <v>12.104</v>
@@ -10187,7 +10190,7 @@
         <v>7.186</v>
       </c>
       <c r="L162">
-        <v>0.034</v>
+        <v>0.047</v>
       </c>
       <c r="M162">
         <v>0.95096</v>
@@ -10202,19 +10205,19 @@
         <v>5545597</v>
       </c>
       <c r="Q162" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R162" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S162" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T162" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U162" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="163" spans="1:21">
@@ -10228,7 +10231,7 @@
         <v>53</v>
       </c>
       <c r="E163" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F163">
         <v>1.54</v>
@@ -10243,7 +10246,7 @@
         <v>9.747999999999999</v>
       </c>
       <c r="L163">
-        <v>1.815</v>
+        <v>1.82</v>
       </c>
       <c r="M163">
         <v>2.498</v>
@@ -10258,19 +10261,19 @@
         <v>5545597</v>
       </c>
       <c r="Q163" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R163" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S163" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T163" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U163" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="164" spans="1:21">
@@ -10284,7 +10287,7 @@
         <v>53</v>
       </c>
       <c r="E164" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F164">
         <v>1.54</v>
@@ -10299,7 +10302,7 @@
         <v>9.747999999999999</v>
       </c>
       <c r="L164">
-        <v>1.815</v>
+        <v>1.82</v>
       </c>
       <c r="M164">
         <v>2.498</v>
@@ -10314,19 +10317,19 @@
         <v>5545597</v>
       </c>
       <c r="Q164" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R164" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S164" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T164" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U164" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="165" spans="1:21">
@@ -10340,7 +10343,7 @@
         <v>53</v>
       </c>
       <c r="E165" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F165">
         <v>0.279</v>
@@ -10355,7 +10358,7 @@
         <v>1.698</v>
       </c>
       <c r="L165">
-        <v>0.343</v>
+        <v>0.41</v>
       </c>
       <c r="M165">
         <v>0.54644</v>
@@ -10370,19 +10373,19 @@
         <v>5545597</v>
       </c>
       <c r="Q165" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R165" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S165" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T165" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U165" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="166" spans="1:21">
@@ -10396,7 +10399,7 @@
         <v>53</v>
       </c>
       <c r="E166" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F166">
         <v>0.279</v>
@@ -10411,7 +10414,7 @@
         <v>1.698</v>
       </c>
       <c r="L166">
-        <v>0.343</v>
+        <v>0.41</v>
       </c>
       <c r="M166">
         <v>0.54644</v>
@@ -10426,19 +10429,19 @@
         <v>5545597</v>
       </c>
       <c r="Q166" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T166" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U166" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="167" spans="1:21">
@@ -10455,7 +10458,7 @@
         <v>54</v>
       </c>
       <c r="E167" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F167">
         <v>0.033</v>
@@ -10485,19 +10488,19 @@
         <v>5545597</v>
       </c>
       <c r="Q167" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T167" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U167" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="168" spans="1:21">
@@ -10514,7 +10517,7 @@
         <v>54</v>
       </c>
       <c r="E168" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F168">
         <v>0.033</v>
@@ -10544,19 +10547,19 @@
         <v>5545597</v>
       </c>
       <c r="Q168" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R168" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S168" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T168" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U168" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="169" spans="1:21">
@@ -10573,19 +10576,19 @@
         <v>54</v>
       </c>
       <c r="E169" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F169">
         <v>450</v>
       </c>
       <c r="G169">
-        <v>2791.64680450127</v>
+        <v>1596.51457578189</v>
       </c>
       <c r="H169">
-        <v>64028.2253755495</v>
+        <v>17417.4684554936</v>
       </c>
       <c r="I169">
-        <v>4537.15</v>
+        <v>4537.26</v>
       </c>
       <c r="J169">
         <v>46.1538461538462</v>
@@ -10594,10 +10597,10 @@
         <v>64.1025641025641</v>
       </c>
       <c r="L169">
-        <v>420</v>
+        <v>2300</v>
       </c>
       <c r="M169">
-        <v>2860.35</v>
+        <v>2860.376</v>
       </c>
       <c r="N169">
         <v>3890</v>
@@ -10609,19 +10612,19 @@
         <v>5545597</v>
       </c>
       <c r="Q169" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R169" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S169" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T169" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U169" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="170" spans="1:21">
@@ -10638,19 +10641,19 @@
         <v>54</v>
       </c>
       <c r="E170" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F170">
         <v>450</v>
       </c>
       <c r="G170">
-        <v>2791.64680450127</v>
+        <v>1596.51457578189</v>
       </c>
       <c r="H170">
-        <v>64028.2253755495</v>
+        <v>17417.4684554936</v>
       </c>
       <c r="I170">
-        <v>4537.15</v>
+        <v>4537.26</v>
       </c>
       <c r="J170">
         <v>46.1538461538462</v>
@@ -10659,10 +10662,10 @@
         <v>64.1025641025641</v>
       </c>
       <c r="L170">
-        <v>420</v>
+        <v>2300</v>
       </c>
       <c r="M170">
-        <v>2860.35</v>
+        <v>2860.376</v>
       </c>
       <c r="N170">
         <v>3890</v>
@@ -10674,19 +10677,19 @@
         <v>5545597</v>
       </c>
       <c r="Q170" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R170" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S170" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T170" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U170" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="171" spans="1:21">
@@ -10703,19 +10706,19 @@
         <v>54</v>
       </c>
       <c r="E171" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F171">
         <v>450</v>
       </c>
       <c r="G171">
-        <v>2791.64680450127</v>
+        <v>1596.51457578189</v>
       </c>
       <c r="H171">
-        <v>64028.2253755495</v>
+        <v>17417.4684554936</v>
       </c>
       <c r="I171">
-        <v>4537.15</v>
+        <v>4537.26</v>
       </c>
       <c r="J171">
         <v>46.1538461538462</v>
@@ -10724,10 +10727,10 @@
         <v>64.1025641025641</v>
       </c>
       <c r="L171">
-        <v>420</v>
+        <v>2300</v>
       </c>
       <c r="M171">
-        <v>2860.35</v>
+        <v>2860.376</v>
       </c>
       <c r="N171">
         <v>3890</v>
@@ -10739,19 +10742,19 @@
         <v>5545597</v>
       </c>
       <c r="Q171" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R171" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S171" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T171" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U171" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="172" spans="1:21">
@@ -10768,19 +10771,19 @@
         <v>54</v>
       </c>
       <c r="E172" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F172">
         <v>450</v>
       </c>
       <c r="G172">
-        <v>2791.64680450127</v>
+        <v>1596.51457578189</v>
       </c>
       <c r="H172">
-        <v>64028.2253755495</v>
+        <v>17417.4684554936</v>
       </c>
       <c r="I172">
-        <v>4537.15</v>
+        <v>4537.26</v>
       </c>
       <c r="J172">
         <v>46.1538461538462</v>
@@ -10789,10 +10792,10 @@
         <v>64.1025641025641</v>
       </c>
       <c r="L172">
-        <v>420</v>
+        <v>2300</v>
       </c>
       <c r="M172">
-        <v>2860.35</v>
+        <v>2860.376</v>
       </c>
       <c r="N172">
         <v>3890</v>
@@ -10804,19 +10807,19 @@
         <v>5545597</v>
       </c>
       <c r="Q172" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R172" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S172" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T172" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U172" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="173" spans="1:21">
@@ -10833,7 +10836,7 @@
         <v>54</v>
       </c>
       <c r="E173" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F173">
         <v>0.01899</v>
@@ -10848,7 +10851,7 @@
         <v>4.5073</v>
       </c>
       <c r="L173">
-        <v>0.0064</v>
+        <v>0.01066</v>
       </c>
       <c r="M173">
         <v>0.07509</v>
@@ -10863,19 +10866,19 @@
         <v>5545597</v>
       </c>
       <c r="Q173" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R173" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S173" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T173" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U173" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="174" spans="1:21">
@@ -10892,7 +10895,7 @@
         <v>54</v>
       </c>
       <c r="E174" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F174">
         <v>0.01899</v>
@@ -10907,7 +10910,7 @@
         <v>4.5073</v>
       </c>
       <c r="L174">
-        <v>0.0064</v>
+        <v>0.01066</v>
       </c>
       <c r="M174">
         <v>0.07509</v>
@@ -10922,19 +10925,19 @@
         <v>5545597</v>
       </c>
       <c r="Q174" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R174" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S174" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T174" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U174" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="175" spans="1:21">
@@ -10951,13 +10954,13 @@
         <v>54</v>
       </c>
       <c r="E175" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F175">
         <v>0.06900000000000001</v>
       </c>
       <c r="G175">
-        <v>0.306546660814305</v>
+        <v>0.306397870626679</v>
       </c>
       <c r="H175">
         <v>1.93</v>
@@ -10966,7 +10969,7 @@
         <v>1.3585</v>
       </c>
       <c r="L175">
-        <v>0.00436</v>
+        <v>0.005</v>
       </c>
       <c r="M175">
         <v>0.72755</v>
@@ -10981,19 +10984,19 @@
         <v>5545597</v>
       </c>
       <c r="Q175" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R175" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S175" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T175" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U175" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="176" spans="1:21">
@@ -11010,13 +11013,13 @@
         <v>54</v>
       </c>
       <c r="E176" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F176">
         <v>0.06900000000000001</v>
       </c>
       <c r="G176">
-        <v>0.306546660814305</v>
+        <v>0.306397870626679</v>
       </c>
       <c r="H176">
         <v>1.93</v>
@@ -11025,7 +11028,7 @@
         <v>1.3585</v>
       </c>
       <c r="L176">
-        <v>0.00436</v>
+        <v>0.005</v>
       </c>
       <c r="M176">
         <v>0.72755</v>
@@ -11040,19 +11043,19 @@
         <v>5545597</v>
       </c>
       <c r="Q176" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R176" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S176" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T176" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U176" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="177" spans="1:21">
@@ -11066,7 +11069,7 @@
         <v>54</v>
       </c>
       <c r="E177" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F177">
         <v>0.31</v>
@@ -11081,7 +11084,7 @@
         <v>12.0887</v>
       </c>
       <c r="L177">
-        <v>0.0235</v>
+        <v>0.047</v>
       </c>
       <c r="M177">
         <v>1.22074</v>
@@ -11096,19 +11099,19 @@
         <v>5545597</v>
       </c>
       <c r="Q177" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R177" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S177" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T177" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U177" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="178" spans="1:21">
@@ -11122,7 +11125,7 @@
         <v>54</v>
       </c>
       <c r="E178" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F178">
         <v>0.31</v>
@@ -11137,7 +11140,7 @@
         <v>12.0887</v>
       </c>
       <c r="L178">
-        <v>0.0235</v>
+        <v>0.047</v>
       </c>
       <c r="M178">
         <v>1.22074</v>
@@ -11152,19 +11155,19 @@
         <v>5545597</v>
       </c>
       <c r="Q178" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R178" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S178" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T178" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U178" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="179" spans="1:21">
@@ -11178,7 +11181,7 @@
         <v>54</v>
       </c>
       <c r="E179" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F179">
         <v>1.56</v>
@@ -11208,19 +11211,19 @@
         <v>5545597</v>
       </c>
       <c r="Q179" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R179" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S179" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T179" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U179" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="180" spans="1:21">
@@ -11234,7 +11237,7 @@
         <v>54</v>
       </c>
       <c r="E180" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F180">
         <v>1.56</v>
@@ -11264,19 +11267,19 @@
         <v>5545597</v>
       </c>
       <c r="Q180" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R180" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S180" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T180" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U180" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="181" spans="1:21">
@@ -11290,7 +11293,7 @@
         <v>54</v>
       </c>
       <c r="E181" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F181">
         <v>0.283</v>
@@ -11305,7 +11308,7 @@
         <v>3.4105</v>
       </c>
       <c r="L181">
-        <v>0.352</v>
+        <v>0.412</v>
       </c>
       <c r="M181">
         <v>0.9214</v>
@@ -11320,19 +11323,19 @@
         <v>5545597</v>
       </c>
       <c r="Q181" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R181" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T181" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U181" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="182" spans="1:21">
@@ -11346,7 +11349,7 @@
         <v>54</v>
       </c>
       <c r="E182" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F182">
         <v>0.283</v>
@@ -11361,7 +11364,7 @@
         <v>3.4105</v>
       </c>
       <c r="L182">
-        <v>0.352</v>
+        <v>0.412</v>
       </c>
       <c r="M182">
         <v>0.9214</v>
@@ -11376,19 +11379,969 @@
         <v>5545597</v>
       </c>
       <c r="Q182" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R182" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S182" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T182" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U182" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21">
+      <c r="A183" t="s">
+        <v>21</v>
+      </c>
+      <c r="B183" t="s">
+        <v>22</v>
+      </c>
+      <c r="C183" t="s">
+        <v>39</v>
+      </c>
+      <c r="D183" t="s">
+        <v>55</v>
+      </c>
+      <c r="E183" t="s">
+        <v>56</v>
+      </c>
+      <c r="F183">
+        <v>0.033</v>
+      </c>
+      <c r="G183">
+        <v>0.210257142857143</v>
+      </c>
+      <c r="H183">
+        <v>3.04</v>
+      </c>
+      <c r="I183">
+        <v>2.137</v>
+      </c>
+      <c r="L183">
+        <v>0.033</v>
+      </c>
+      <c r="M183">
+        <v>0.0775</v>
+      </c>
+      <c r="N183">
+        <v>0.1726</v>
+      </c>
+      <c r="O183">
+        <v>1805182</v>
+      </c>
+      <c r="P183">
+        <v>5545597</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>57</v>
+      </c>
+      <c r="R183" t="s">
+        <v>58</v>
+      </c>
+      <c r="S183" t="s">
+        <v>59</v>
+      </c>
+      <c r="T183" t="s">
+        <v>60</v>
+      </c>
+      <c r="U183" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21">
+      <c r="A184" t="s">
+        <v>21</v>
+      </c>
+      <c r="B184" t="s">
+        <v>23</v>
+      </c>
+      <c r="C184" t="s">
+        <v>39</v>
+      </c>
+      <c r="D184" t="s">
+        <v>55</v>
+      </c>
+      <c r="E184" t="s">
+        <v>56</v>
+      </c>
+      <c r="F184">
+        <v>0.033</v>
+      </c>
+      <c r="G184">
+        <v>0.210257142857143</v>
+      </c>
+      <c r="H184">
+        <v>3.04</v>
+      </c>
+      <c r="I184">
+        <v>2.137</v>
+      </c>
+      <c r="L184">
+        <v>0.033</v>
+      </c>
+      <c r="M184">
+        <v>0.0775</v>
+      </c>
+      <c r="N184">
+        <v>0.1726</v>
+      </c>
+      <c r="O184">
+        <v>1805182</v>
+      </c>
+      <c r="P184">
+        <v>5545597</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>57</v>
+      </c>
+      <c r="R184" t="s">
+        <v>58</v>
+      </c>
+      <c r="S184" t="s">
+        <v>59</v>
+      </c>
+      <c r="T184" t="s">
+        <v>60</v>
+      </c>
+      <c r="U184" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21">
+      <c r="A185" t="s">
+        <v>21</v>
+      </c>
+      <c r="B185" t="s">
+        <v>24</v>
+      </c>
+      <c r="C185" t="s">
+        <v>40</v>
+      </c>
+      <c r="D185" t="s">
+        <v>55</v>
+      </c>
+      <c r="E185" t="s">
+        <v>56</v>
+      </c>
+      <c r="F185">
+        <v>670</v>
+      </c>
+      <c r="G185">
+        <v>1224.62857142857</v>
+      </c>
+      <c r="H185">
+        <v>4813.2</v>
+      </c>
+      <c r="I185">
+        <v>4075</v>
+      </c>
+      <c r="J185">
+        <v>51.4285714285714</v>
+      </c>
+      <c r="K185">
+        <v>62.8571428571429</v>
+      </c>
+      <c r="L185">
+        <v>2068.8</v>
+      </c>
+      <c r="M185">
+        <v>2762.84</v>
+      </c>
+      <c r="N185">
+        <v>3700</v>
+      </c>
+      <c r="O185">
+        <v>1805182</v>
+      </c>
+      <c r="P185">
+        <v>5545597</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>57</v>
+      </c>
+      <c r="R185" t="s">
+        <v>58</v>
+      </c>
+      <c r="S185" t="s">
+        <v>59</v>
+      </c>
+      <c r="T185" t="s">
+        <v>60</v>
+      </c>
+      <c r="U185" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21">
+      <c r="A186" t="s">
+        <v>21</v>
+      </c>
+      <c r="B186" t="s">
+        <v>25</v>
+      </c>
+      <c r="C186" t="s">
+        <v>40</v>
+      </c>
+      <c r="D186" t="s">
+        <v>55</v>
+      </c>
+      <c r="E186" t="s">
+        <v>56</v>
+      </c>
+      <c r="F186">
+        <v>670</v>
+      </c>
+      <c r="G186">
+        <v>1224.62857142857</v>
+      </c>
+      <c r="H186">
+        <v>4813.2</v>
+      </c>
+      <c r="I186">
+        <v>4075</v>
+      </c>
+      <c r="J186">
+        <v>51.4285714285714</v>
+      </c>
+      <c r="K186">
+        <v>62.8571428571429</v>
+      </c>
+      <c r="L186">
+        <v>2068.8</v>
+      </c>
+      <c r="M186">
+        <v>2762.84</v>
+      </c>
+      <c r="N186">
+        <v>3700</v>
+      </c>
+      <c r="O186">
+        <v>1805182</v>
+      </c>
+      <c r="P186">
+        <v>5545597</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>57</v>
+      </c>
+      <c r="R186" t="s">
+        <v>58</v>
+      </c>
+      <c r="S186" t="s">
+        <v>59</v>
+      </c>
+      <c r="T186" t="s">
+        <v>60</v>
+      </c>
+      <c r="U186" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21">
+      <c r="A187" t="s">
+        <v>21</v>
+      </c>
+      <c r="B187" t="s">
+        <v>26</v>
+      </c>
+      <c r="C187" t="s">
+        <v>40</v>
+      </c>
+      <c r="D187" t="s">
+        <v>55</v>
+      </c>
+      <c r="E187" t="s">
+        <v>56</v>
+      </c>
+      <c r="F187">
+        <v>670</v>
+      </c>
+      <c r="G187">
+        <v>1224.62857142857</v>
+      </c>
+      <c r="H187">
+        <v>4813.2</v>
+      </c>
+      <c r="I187">
+        <v>4075</v>
+      </c>
+      <c r="J187">
+        <v>51.4285714285714</v>
+      </c>
+      <c r="K187">
+        <v>62.8571428571429</v>
+      </c>
+      <c r="L187">
+        <v>2068.8</v>
+      </c>
+      <c r="M187">
+        <v>2762.84</v>
+      </c>
+      <c r="N187">
+        <v>3700</v>
+      </c>
+      <c r="O187">
+        <v>1805182</v>
+      </c>
+      <c r="P187">
+        <v>5545597</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>57</v>
+      </c>
+      <c r="R187" t="s">
+        <v>58</v>
+      </c>
+      <c r="S187" t="s">
+        <v>59</v>
+      </c>
+      <c r="T187" t="s">
+        <v>60</v>
+      </c>
+      <c r="U187" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21">
+      <c r="A188" t="s">
+        <v>21</v>
+      </c>
+      <c r="B188" t="s">
+        <v>27</v>
+      </c>
+      <c r="C188" t="s">
+        <v>40</v>
+      </c>
+      <c r="D188" t="s">
+        <v>55</v>
+      </c>
+      <c r="E188" t="s">
+        <v>56</v>
+      </c>
+      <c r="F188">
+        <v>670</v>
+      </c>
+      <c r="G188">
+        <v>1224.62857142857</v>
+      </c>
+      <c r="H188">
+        <v>4813.2</v>
+      </c>
+      <c r="I188">
+        <v>4075</v>
+      </c>
+      <c r="J188">
+        <v>51.4285714285714</v>
+      </c>
+      <c r="K188">
+        <v>62.8571428571429</v>
+      </c>
+      <c r="L188">
+        <v>2068.8</v>
+      </c>
+      <c r="M188">
+        <v>2762.84</v>
+      </c>
+      <c r="N188">
+        <v>3700</v>
+      </c>
+      <c r="O188">
+        <v>1805182</v>
+      </c>
+      <c r="P188">
+        <v>5545597</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>57</v>
+      </c>
+      <c r="R188" t="s">
+        <v>58</v>
+      </c>
+      <c r="S188" t="s">
+        <v>59</v>
+      </c>
+      <c r="T188" t="s">
+        <v>60</v>
+      </c>
+      <c r="U188" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21">
+      <c r="A189" t="s">
+        <v>21</v>
+      </c>
+      <c r="B189" t="s">
+        <v>28</v>
+      </c>
+      <c r="C189" t="s">
+        <v>39</v>
+      </c>
+      <c r="D189" t="s">
+        <v>55</v>
+      </c>
+      <c r="E189" t="s">
+        <v>56</v>
+      </c>
+      <c r="F189">
+        <v>0.01516</v>
+      </c>
+      <c r="G189">
+        <v>0.402475672152716</v>
+      </c>
+      <c r="H189">
+        <v>6.74824109968983</v>
+      </c>
+      <c r="I189">
+        <v>4.03379</v>
+      </c>
+      <c r="L189">
+        <v>0.006</v>
+      </c>
+      <c r="M189">
+        <v>0.0709</v>
+      </c>
+      <c r="N189">
+        <v>0.9716399999999999</v>
+      </c>
+      <c r="O189">
+        <v>1805182</v>
+      </c>
+      <c r="P189">
+        <v>5545597</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>57</v>
+      </c>
+      <c r="R189" t="s">
+        <v>58</v>
+      </c>
+      <c r="S189" t="s">
+        <v>59</v>
+      </c>
+      <c r="T189" t="s">
+        <v>60</v>
+      </c>
+      <c r="U189" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21">
+      <c r="A190" t="s">
+        <v>21</v>
+      </c>
+      <c r="B190" t="s">
+        <v>29</v>
+      </c>
+      <c r="C190" t="s">
+        <v>42</v>
+      </c>
+      <c r="D190" t="s">
+        <v>55</v>
+      </c>
+      <c r="E190" t="s">
+        <v>56</v>
+      </c>
+      <c r="F190">
+        <v>0.01516</v>
+      </c>
+      <c r="G190">
+        <v>0.402475672152716</v>
+      </c>
+      <c r="H190">
+        <v>6.74824109968983</v>
+      </c>
+      <c r="I190">
+        <v>4.03379</v>
+      </c>
+      <c r="L190">
+        <v>0.006</v>
+      </c>
+      <c r="M190">
+        <v>0.0709</v>
+      </c>
+      <c r="N190">
+        <v>0.9716399999999999</v>
+      </c>
+      <c r="O190">
+        <v>1805182</v>
+      </c>
+      <c r="P190">
+        <v>5545597</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>57</v>
+      </c>
+      <c r="R190" t="s">
+        <v>58</v>
+      </c>
+      <c r="S190" t="s">
+        <v>59</v>
+      </c>
+      <c r="T190" t="s">
+        <v>60</v>
+      </c>
+      <c r="U190" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21">
+      <c r="A191" t="s">
+        <v>21</v>
+      </c>
+      <c r="B191" t="s">
+        <v>30</v>
+      </c>
+      <c r="C191" t="s">
+        <v>42</v>
+      </c>
+      <c r="D191" t="s">
+        <v>55</v>
+      </c>
+      <c r="E191" t="s">
+        <v>56</v>
+      </c>
+      <c r="F191">
+        <v>0.063</v>
+      </c>
+      <c r="G191">
+        <v>0.292262189210148</v>
+      </c>
+      <c r="H191">
+        <v>2.28</v>
+      </c>
+      <c r="I191">
+        <v>1.33675</v>
+      </c>
+      <c r="L191">
+        <v>0.00502</v>
+      </c>
+      <c r="M191">
+        <v>0.64685</v>
+      </c>
+      <c r="N191">
+        <v>0.8788</v>
+      </c>
+      <c r="O191">
+        <v>1805182</v>
+      </c>
+      <c r="P191">
+        <v>5545597</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>57</v>
+      </c>
+      <c r="R191" t="s">
+        <v>58</v>
+      </c>
+      <c r="S191" t="s">
+        <v>59</v>
+      </c>
+      <c r="T191" t="s">
+        <v>60</v>
+      </c>
+      <c r="U191" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21">
+      <c r="A192" t="s">
+        <v>21</v>
+      </c>
+      <c r="B192" t="s">
+        <v>31</v>
+      </c>
+      <c r="C192" t="s">
+        <v>42</v>
+      </c>
+      <c r="D192" t="s">
+        <v>55</v>
+      </c>
+      <c r="E192" t="s">
+        <v>56</v>
+      </c>
+      <c r="F192">
+        <v>0.063</v>
+      </c>
+      <c r="G192">
+        <v>0.292262189210148</v>
+      </c>
+      <c r="H192">
+        <v>2.28</v>
+      </c>
+      <c r="I192">
+        <v>1.33675</v>
+      </c>
+      <c r="L192">
+        <v>0.00502</v>
+      </c>
+      <c r="M192">
+        <v>0.64685</v>
+      </c>
+      <c r="N192">
+        <v>0.8788</v>
+      </c>
+      <c r="O192">
+        <v>1805182</v>
+      </c>
+      <c r="P192">
+        <v>5545597</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>57</v>
+      </c>
+      <c r="R192" t="s">
+        <v>58</v>
+      </c>
+      <c r="S192" t="s">
+        <v>59</v>
+      </c>
+      <c r="T192" t="s">
+        <v>60</v>
+      </c>
+      <c r="U192" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21">
+      <c r="A193" t="s">
+        <v>21</v>
+      </c>
+      <c r="B193" t="s">
+        <v>32</v>
+      </c>
+      <c r="D193" t="s">
+        <v>55</v>
+      </c>
+      <c r="E193" t="s">
+        <v>56</v>
+      </c>
+      <c r="F193">
+        <v>0.215</v>
+      </c>
+      <c r="G193">
+        <v>1.28098571428571</v>
+      </c>
+      <c r="H193">
+        <v>18.12</v>
+      </c>
+      <c r="I193">
+        <v>10.035</v>
+      </c>
+      <c r="L193">
+        <v>0.02</v>
+      </c>
+      <c r="M193">
+        <v>0.9317</v>
+      </c>
+      <c r="N193">
+        <v>3.4599</v>
+      </c>
+      <c r="O193">
+        <v>1805182</v>
+      </c>
+      <c r="P193">
+        <v>5545597</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>57</v>
+      </c>
+      <c r="R193" t="s">
+        <v>58</v>
+      </c>
+      <c r="S193" t="s">
+        <v>59</v>
+      </c>
+      <c r="T193" t="s">
+        <v>60</v>
+      </c>
+      <c r="U193" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21">
+      <c r="A194" t="s">
+        <v>21</v>
+      </c>
+      <c r="B194" t="s">
+        <v>33</v>
+      </c>
+      <c r="D194" t="s">
+        <v>55</v>
+      </c>
+      <c r="E194" t="s">
+        <v>56</v>
+      </c>
+      <c r="F194">
+        <v>0.215</v>
+      </c>
+      <c r="G194">
+        <v>1.28098571428571</v>
+      </c>
+      <c r="H194">
+        <v>18.12</v>
+      </c>
+      <c r="I194">
+        <v>10.035</v>
+      </c>
+      <c r="L194">
+        <v>0.02</v>
+      </c>
+      <c r="M194">
+        <v>0.9317</v>
+      </c>
+      <c r="N194">
+        <v>3.4599</v>
+      </c>
+      <c r="O194">
+        <v>1805182</v>
+      </c>
+      <c r="P194">
+        <v>5545597</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>57</v>
+      </c>
+      <c r="R194" t="s">
+        <v>58</v>
+      </c>
+      <c r="S194" t="s">
+        <v>59</v>
+      </c>
+      <c r="T194" t="s">
+        <v>60</v>
+      </c>
+      <c r="U194" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21">
+      <c r="A195" t="s">
+        <v>21</v>
+      </c>
+      <c r="B195" t="s">
+        <v>34</v>
+      </c>
+      <c r="D195" t="s">
+        <v>55</v>
+      </c>
+      <c r="E195" t="s">
+        <v>56</v>
+      </c>
+      <c r="F195">
+        <v>1.53</v>
+      </c>
+      <c r="G195">
+        <v>2.94114285714286</v>
+      </c>
+      <c r="H195">
+        <v>25.7</v>
+      </c>
+      <c r="I195">
+        <v>13.395</v>
+      </c>
+      <c r="L195">
+        <v>2.11</v>
+      </c>
+      <c r="M195">
+        <v>2.788</v>
+      </c>
+      <c r="N195">
+        <v>5.196</v>
+      </c>
+      <c r="O195">
+        <v>1805182</v>
+      </c>
+      <c r="P195">
+        <v>5545597</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>57</v>
+      </c>
+      <c r="R195" t="s">
+        <v>58</v>
+      </c>
+      <c r="S195" t="s">
+        <v>59</v>
+      </c>
+      <c r="T195" t="s">
+        <v>60</v>
+      </c>
+      <c r="U195" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21">
+      <c r="A196" t="s">
+        <v>21</v>
+      </c>
+      <c r="B196" t="s">
+        <v>35</v>
+      </c>
+      <c r="D196" t="s">
+        <v>55</v>
+      </c>
+      <c r="E196" t="s">
+        <v>56</v>
+      </c>
+      <c r="F196">
+        <v>1.53</v>
+      </c>
+      <c r="G196">
+        <v>2.94114285714286</v>
+      </c>
+      <c r="H196">
+        <v>25.7</v>
+      </c>
+      <c r="I196">
+        <v>13.395</v>
+      </c>
+      <c r="L196">
+        <v>2.11</v>
+      </c>
+      <c r="M196">
+        <v>2.788</v>
+      </c>
+      <c r="N196">
+        <v>5.196</v>
+      </c>
+      <c r="O196">
+        <v>1805182</v>
+      </c>
+      <c r="P196">
+        <v>5545597</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>57</v>
+      </c>
+      <c r="R196" t="s">
+        <v>58</v>
+      </c>
+      <c r="S196" t="s">
+        <v>59</v>
+      </c>
+      <c r="T196" t="s">
+        <v>60</v>
+      </c>
+      <c r="U196" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21">
+      <c r="A197" t="s">
+        <v>21</v>
+      </c>
+      <c r="B197" t="s">
+        <v>36</v>
+      </c>
+      <c r="D197" t="s">
+        <v>55</v>
+      </c>
+      <c r="E197" t="s">
+        <v>56</v>
+      </c>
+      <c r="F197">
+        <v>0.33</v>
+      </c>
+      <c r="G197">
+        <v>0.653285714285714</v>
+      </c>
+      <c r="H197">
+        <v>5</v>
+      </c>
+      <c r="I197">
+        <v>3.8325</v>
+      </c>
+      <c r="L197">
+        <v>0.412</v>
+      </c>
+      <c r="M197">
+        <v>0.75145</v>
+      </c>
+      <c r="N197">
+        <v>1.896</v>
+      </c>
+      <c r="O197">
+        <v>1805182</v>
+      </c>
+      <c r="P197">
+        <v>5545597</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>57</v>
+      </c>
+      <c r="R197" t="s">
+        <v>58</v>
+      </c>
+      <c r="S197" t="s">
+        <v>59</v>
+      </c>
+      <c r="T197" t="s">
+        <v>60</v>
+      </c>
+      <c r="U197" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21">
+      <c r="A198" t="s">
+        <v>21</v>
+      </c>
+      <c r="B198" t="s">
+        <v>37</v>
+      </c>
+      <c r="D198" t="s">
+        <v>55</v>
+      </c>
+      <c r="E198" t="s">
+        <v>56</v>
+      </c>
+      <c r="F198">
+        <v>0.33</v>
+      </c>
+      <c r="G198">
+        <v>0.653285714285714</v>
+      </c>
+      <c r="H198">
+        <v>5</v>
+      </c>
+      <c r="I198">
+        <v>3.8325</v>
+      </c>
+      <c r="L198">
+        <v>0.412</v>
+      </c>
+      <c r="M198">
+        <v>0.75145</v>
+      </c>
+      <c r="N198">
+        <v>1.896</v>
+      </c>
+      <c r="O198">
+        <v>1805182</v>
+      </c>
+      <c r="P198">
+        <v>5545597</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>57</v>
+      </c>
+      <c r="R198" t="s">
+        <v>58</v>
+      </c>
+      <c r="S198" t="s">
+        <v>59</v>
+      </c>
+      <c r="T198" t="s">
+        <v>60</v>
+      </c>
+      <c r="U198" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
